--- a/Sorption Experiments/RaGoe_pH5/RaGoe_pH5_NoScript.xlsx
+++ b/Sorption Experiments/RaGoe_pH5/RaGoe_pH5_NoScript.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\Radium Sorption\Sorption Experiments\RaGoe_pH5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\machen\Documents\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\RaGoe_pH5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12290" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Bottle Results" sheetId="5" r:id="rId5"/>
     <sheet name="Averaged Results" sheetId="8" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="147">
   <si>
     <t>Parameters</t>
   </si>
@@ -178,21 +181,12 @@
     <t>Known Activity (uCi)</t>
   </si>
   <si>
-    <t>Known-Average</t>
-  </si>
-  <si>
     <t>Gamma Counter Calculated Activity</t>
   </si>
   <si>
     <t>Scint Counter Calculated Activity (Bq)</t>
   </si>
   <si>
-    <t>Squared Actual Activity Variation from Average</t>
-  </si>
-  <si>
-    <t>Error (Bq)</t>
-  </si>
-  <si>
     <t>Background</t>
   </si>
   <si>
@@ -202,15 +196,6 @@
     <t>SUMMARY OUTPUT</t>
   </si>
   <si>
-    <t>Counter CPS-&gt;Activity (Bq)</t>
-  </si>
-  <si>
-    <t>DOES NOT INCLUDE BACKGROUND</t>
-  </si>
-  <si>
-    <t>Activity (Bq) - &gt; Counter CPS</t>
-  </si>
-  <si>
     <t>Regression Statistics</t>
   </si>
   <si>
@@ -232,9 +217,6 @@
     <t>ANOVA</t>
   </si>
   <si>
-    <t>Std dev of residuals</t>
-  </si>
-  <si>
     <t>df</t>
   </si>
   <si>
@@ -298,15 +280,9 @@
     <t>Residuals</t>
   </si>
   <si>
-    <t>Residual Squared</t>
-  </si>
-  <si>
     <t>Parsons Gamma Counter</t>
   </si>
   <si>
-    <t>Gamma Counter CPS-&gt;Bq</t>
-  </si>
-  <si>
     <t>Solution counts (Bq)</t>
   </si>
   <si>
@@ -485,22 +461,26 @@
   </si>
   <si>
     <t>spH</t>
+  </si>
+  <si>
+    <t>(Known-Average)^2</t>
+  </si>
+  <si>
+    <t>RaStock5</t>
+  </si>
+  <si>
+    <t>RaStock4</t>
+  </si>
+  <si>
+    <t>CPS-&gt;Bq No background</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -557,7 +537,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -584,17 +564,6 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -607,7 +576,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,7 +584,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -624,48 +593,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -675,6 +632,15 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,6 +656,415 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X Variable 1 Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Calibration Data'!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.4640522875816994E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9815435847137763E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2604166666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0219907407407408E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4872685185185185E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39049768518518518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Calibration Data'!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.31819999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.591</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Calibration Data'!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.4640522875816994E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9815435847137763E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2604166666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0219907407407408E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4872685185185185E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39049768518518518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Calibration Data'!$B$70:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.7375179093564292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12652001269851265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0339381254012432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.555200391349953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.9801326442823</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157.96292673562442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="489828240"/>
+        <c:axId val="489828632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="489828240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X Variable 1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="489828632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="489828632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="489828240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sample Parameters"/>
+      <sheetName val="Scintillation Counter Results"/>
+      <sheetName val="Gamma Counter Results"/>
+      <sheetName val="Quality Control Notes"/>
+      <sheetName val="Calibration Data"/>
+      <sheetName val="Stock Log"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="3">
+          <cell r="F3">
+            <v>3.4640522875816994E-3</v>
+          </cell>
+          <cell r="I3">
+            <v>0.31819999999999998</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>7.9815435847137763E-3</v>
+          </cell>
+          <cell r="I4">
+            <v>1.591</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>1.2604166666666666E-2</v>
+          </cell>
+          <cell r="I5">
+            <v>3.1819999999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>5.0219907407407408E-2</v>
+          </cell>
+          <cell r="I6">
+            <v>15.91</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>9.4872685185185185E-2</v>
+          </cell>
+          <cell r="I7">
+            <v>31.82</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>0.39049768518518518</v>
+          </cell>
+          <cell r="I8">
+            <v>159.1</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>-1.7375179093564292</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>0.12652001269851265</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>2.0339381254012432</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>17.555200391349953</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>35.9801326442823</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>157.96292673562442</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -958,16 +1333,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -984,15 +1359,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="19">
         <v>42419</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1009,15 +1384,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1025,15 +1400,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>631.52245819489701</v>
+        <v>341.69636021701456</v>
       </c>
       <c r="C6">
-        <v>0.53167165791808602</v>
+        <v>0.1278314405168707</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1042,7 +1417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1057,31 +1432,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD74"/>
+  <dimension ref="A1:AE76"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.26953125" style="2" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="18.7109375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.26953125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="18.7265625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>43</v>
       </c>
@@ -1107,24 +1483,20 @@
         <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B2" s="2">
         <v>69.266666666666666</v>
@@ -1149,16 +1521,16 @@
       <c r="I2" s="2">
         <v>0</v>
       </c>
+      <c r="K2">
+        <f>F2*$B$63+$B$62</f>
+        <v>-2.6893013764520717</v>
+      </c>
       <c r="L2">
-        <f t="shared" ref="L2:L8" si="0">(D2-$L$30)/$L$31</f>
-        <v>0.24403057137578671</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N8" si="1">$L$20/ABS($L$31)*SQRT(1/$L$21+1+(D2-AVERAGE($D$3:$D$8))^2/($L$31^2*(SUM($M$3:$M$8))))</f>
-        <v>0.23936202341417753</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <f>D2*$B$30+$B$29</f>
+        <v>0.13209164838024126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -1169,11 +1541,11 @@
         <v>4.5389670875898238</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:E8" si="2">B3/60</f>
+        <f t="shared" ref="D3:E9" si="0">B3/60</f>
         <v>3.5588888888888888</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7.5649451459830402E-2</v>
       </c>
       <c r="F3" s="2">
@@ -1184,34 +1556,26 @@
       </c>
       <c r="H3" s="5">
         <f>H7/100</f>
-        <v>1.59E-5</v>
+        <v>8.599999999999999E-6</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I8" si="3">H3*37000</f>
-        <v>0.58830000000000005</v>
+        <f t="shared" ref="I3:I8" si="1">H3*37000</f>
+        <v>0.31819999999999998</v>
       </c>
       <c r="J3" s="5">
         <f>(I3-AVERAGE($I$3:$I$8))^2</f>
-        <v>4187.7723690000012</v>
+        <v>1225.1400040000001</v>
       </c>
       <c r="K3">
-        <f>F3*$B$61+$B$60</f>
-        <v>-2.249901649732176</v>
+        <f>F3*$B$63+$B$62</f>
+        <v>-1.7375179093564292</v>
       </c>
       <c r="L3">
-        <f t="shared" si="0"/>
-        <v>0.77044240244938123</v>
-      </c>
-      <c r="M3">
-        <f>(I3-AVERAGE($I$3:$I$8))^2</f>
-        <v>4187.7723690000012</v>
-      </c>
-      <c r="N3">
-        <f>$L$20/ABS($L$31)*SQRT(1/$L$21+1+(D3-AVERAGE($D$3:$D$8))^2/($L$31^2*(SUM($M$3:$M$8))))</f>
-        <v>0.23926048894726873</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L3:L10" si="2">D3*$B$30+$B$29</f>
+        <v>0.41681673309525025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
@@ -1222,11 +1586,11 @@
         <v>12.530584805000577</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14.189444444444446</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.20884308008334296</v>
       </c>
       <c r="F4" s="2">
@@ -1237,34 +1601,26 @@
       </c>
       <c r="H4" s="5">
         <f>H7/20</f>
-        <v>7.9500000000000008E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="3"/>
-        <v>2.9415000000000004</v>
+        <f t="shared" si="1"/>
+        <v>1.591</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J8" si="4">(I4-AVERAGE($I$3:$I$8))^2</f>
-        <v>3888.7446560400017</v>
+        <f t="shared" ref="J4:J8" si="3">(I4-AVERAGE($I$3:$I$8))^2</f>
+        <v>1137.6589326399999</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K8" si="5">F4*$B$61+$B$60</f>
-        <v>1.1815378350424348</v>
+        <f t="shared" ref="K4:K9" si="4">F4*$B$63+$B$62</f>
+        <v>0.12652001269851265</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
-        <v>3.0978200335938433</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M8" si="6">(I4-AVERAGE($I$3:$I$8))^2</f>
-        <v>3888.7446560400017</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>0.23882097262076729</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1.6756463301427775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1275,11 +1631,11 @@
         <v>32.620954410720707</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>27.261666666666667</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.54368257351201177</v>
       </c>
       <c r="F5" s="2">
@@ -1290,34 +1646,26 @@
       </c>
       <c r="H5" s="5">
         <f>H7/10</f>
-        <v>1.5900000000000002E-4</v>
+        <v>8.6000000000000003E-5</v>
       </c>
       <c r="I5" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1819999999999999</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="3"/>
-        <v>5.8830000000000009</v>
-      </c>
-      <c r="J5" s="5">
+        <v>1032.8638992399999</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="4"/>
-        <v>3530.5343748900009</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="5"/>
-        <v>4.6928343319972328</v>
+        <v>2.0339381254012432</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
-        <v>5.9597586623280572</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="6"/>
-        <v>3530.5343748900009</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>0.23830159492838568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>3.2236087246307998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
@@ -1328,11 +1676,11 @@
         <v>50.234140670352431</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>133.3138888888889</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.83723567783920716</v>
       </c>
       <c r="F6" s="2">
@@ -1343,34 +1691,26 @@
       </c>
       <c r="H6" s="5">
         <f>H7/2</f>
-        <v>7.9500000000000003E-4</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="I6" s="5">
+        <f t="shared" si="1"/>
+        <v>15.91</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="3"/>
-        <v>29.415000000000003</v>
-      </c>
-      <c r="J6" s="5">
+        <v>376.75586404000001</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="4"/>
-        <v>1287.8265276900004</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
-        <v>33.265360439300757</v>
+        <v>17.555200391349953</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>29.178071989722408</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="6"/>
-        <v>1287.8265276900004</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>0.23496515304651927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>15.781905933869924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
@@ -1381,11 +1721,11 @@
         <v>53.513259001171903</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>267.61888888888888</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.89188765001953174</v>
       </c>
       <c r="F7" s="2">
@@ -1395,34 +1735,26 @@
         <v>2.9521990740740741E-3</v>
       </c>
       <c r="H7" s="5">
-        <v>1.5900000000000001E-3</v>
+        <v>8.5999999999999998E-4</v>
       </c>
       <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>31.82</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="3"/>
-        <v>58.830000000000005</v>
-      </c>
-      <c r="J7" s="5">
+        <v>12.251400039999996</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="4"/>
-        <v>41.877723690000082</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>67.183146815293682</v>
+        <v>35.9801326442823</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
-        <v>58.581845961582474</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="6"/>
-        <v>41.877723690000082</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>0.23304764250463261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>31.685788675267496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -1433,11 +1765,11 @@
         <v>80.454997758225829</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1343.9216666666666</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.3409166293037638</v>
       </c>
       <c r="F8" s="2">
@@ -1448,968 +1780,1279 @@
       </c>
       <c r="H8" s="5">
         <f>H7*5</f>
-        <v>7.9500000000000005E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="I8" s="5">
+        <f t="shared" si="1"/>
+        <v>159.1</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="3"/>
-        <v>294.15000000000003</v>
-      </c>
-      <c r="J8" s="5">
+        <v>15321.438888039998</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="4"/>
-        <v>52371.727491690006</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
-        <v>291.73682737921575</v>
+        <v>157.96292673562442</v>
       </c>
       <c r="L8">
+        <f t="shared" si="2"/>
+        <v>159.1374336029937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="2">
+        <v>342248.6</v>
+      </c>
+      <c r="C9" s="2">
+        <f>B9*0.11/100</f>
+        <v>376.47345999999999</v>
+      </c>
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>294.21986095032389</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="6"/>
-        <v>52371.727491690006</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>0.30267266037130586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+        <v>5704.1433333333325</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2745576666666665</v>
+      </c>
+      <c r="F9">
+        <v>1.9</v>
+      </c>
+      <c r="G9">
+        <f>F9*0.5/100</f>
+        <v>9.4999999999999998E-3</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5">
-        <f>SUM(J3:J8)</f>
-        <v>65308.483143000012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>780.8240178086387</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>675.45815221486782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10">
+        <v>2882.0033333333336</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>341.27116260310561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B16" s="7">
+        <v>0.99999857522978297</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.99999857522978297</v>
+      </c>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" s="7">
+        <v>0.99999715046159587</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.99999715046159587</v>
+      </c>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B18" s="7">
+        <v>0.99999643807699479</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.99999643807699479</v>
+      </c>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K12" t="s">
+      <c r="B19" s="7">
+        <v>0.11666575259658109</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.98521674441589902</v>
+      </c>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+    </row>
+    <row r="20" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="M12" t="s">
+      <c r="B20" s="9">
+        <v>6</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="9">
+        <v>6</v>
+      </c>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21" s="24"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+    </row>
+    <row r="22" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" s="24"/>
+      <c r="K22" t="s">
+        <v>60</v>
+      </c>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
+        <v>19106.054544408686</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19106.054544408686</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1403732.1258707412</v>
+      </c>
+      <c r="F24" s="7">
+        <v>3.0449538110703924E-12</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1362535.4424342527</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1362535.4424342527</v>
+      </c>
+      <c r="O24" s="7">
+        <v>1403732.1258709223</v>
+      </c>
+      <c r="P24" s="7">
+        <v>3.0449538110696028E-12</v>
+      </c>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5.4443591315706669E-2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1.3610897828926667E-2</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="7">
+        <v>4</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3.8826081339098519</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0.97065203347746298</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+    </row>
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="9">
+        <v>5</v>
+      </c>
+      <c r="C26" s="9">
+        <v>19106.108988</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="9">
+        <v>5</v>
+      </c>
+      <c r="M26" s="9">
+        <v>1362539.3250423865</v>
+      </c>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+    </row>
+    <row r="27" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27" s="24"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="V12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0.99999857522978297</v>
-      </c>
-      <c r="K14" t="s">
-        <v>56</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0.99999715046159587</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="W15" s="11">
-        <v>0.99999829960800468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0.99999643807699479</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="12"/>
-      <c r="V16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W16" s="11">
-        <v>0.99999659921890061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0.2156959844518157</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0.99999857522978297</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="V17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="W17" s="11">
-        <v>0.9999959190626807</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="13">
+      <c r="D28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="7">
+        <v>-4.6132328669372669E-3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5.6191006719858279E-2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-8.2099131804786105E-2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.93851196251841018</v>
+      </c>
+      <c r="F29" s="7">
+        <v>-0.1606244784304241</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.15139801269654957</v>
+      </c>
+      <c r="H29" s="7">
+        <v>-0.1606244784304241</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.15139801269654957</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" s="7">
+        <v>3.9807734204714507E-2</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0.47450311588138688</v>
+      </c>
+      <c r="N29" s="7">
+        <v>8.3893514862956931E-2</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0.93717195197245085</v>
+      </c>
+      <c r="P29" s="7">
+        <v>-1.2776241192852635</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>1.3572395876946926</v>
+      </c>
+      <c r="R29" s="7">
+        <v>-1.2776241192852635</v>
+      </c>
+      <c r="S29" s="7">
+        <v>1.3572395876946926</v>
+      </c>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="25"/>
+    </row>
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="9">
+        <v>0.11841616277426437</v>
+      </c>
+      <c r="C30" s="9">
+        <v>9.9946793173107741E-5</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1184.792017980684</v>
+      </c>
+      <c r="E30" s="9">
+        <v>3.0449538110703924E-12</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.11813866598957867</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.11869365955895006</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.11813866598957867</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.11869365955895006</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="9">
+        <v>8.4447690841653227</v>
+      </c>
+      <c r="M30" s="9">
+        <v>7.1276384006686089E-3</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1184.7920179807606</v>
+      </c>
+      <c r="O30" s="9">
+        <v>3.0449538110696028E-12</v>
+      </c>
+      <c r="P30" s="9">
+        <v>8.4249795874161659</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>8.4645585809144794</v>
+      </c>
+      <c r="R30" s="9">
+        <v>8.4249795874161659</v>
+      </c>
+      <c r="S30" s="9">
+        <v>8.4645585809144794</v>
+      </c>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="25"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31" s="24"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="25"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32" s="24"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33" s="24"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34" s="24"/>
+      <c r="K34" t="s">
+        <v>78</v>
+      </c>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="25"/>
+      <c r="AD34" s="25"/>
+      <c r="AE34" s="25"/>
+    </row>
+    <row r="35" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35" s="24"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="25"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>1</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.41681673309525025</v>
+      </c>
+      <c r="C37" s="7">
+        <v>-9.8616733095250264E-2</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+      <c r="L37" s="7">
+        <v>2.7269332567861202</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0.83195563210276857</v>
+      </c>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="25"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>2</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1.6756463301427775</v>
+      </c>
+      <c r="C38" s="7">
+        <v>-8.4646330142777559E-2</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="7">
+        <v>2</v>
+      </c>
+      <c r="L38" s="7">
+        <v>13.475435347111743</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0.71400909733270268</v>
+      </c>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>3</v>
+      </c>
+      <c r="B39" s="7">
+        <v>3.2236087246307998</v>
+      </c>
+      <c r="C39" s="7">
+        <v>-4.1608724630799898E-2</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="7">
+        <v>3</v>
+      </c>
+      <c r="L39" s="7">
+        <v>26.911062960018771</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.35060370664789531</v>
+      </c>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>4</v>
+      </c>
+      <c r="B40" s="7">
+        <v>15.781905933869924</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.12809406613007646</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="7">
+        <v>4</v>
+      </c>
+      <c r="L40" s="7">
+        <v>134.39608386327501</v>
+      </c>
+      <c r="M40" s="7">
+        <v>-1.0821949743861126</v>
+      </c>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="25"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="25"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
+        <v>5</v>
+      </c>
+      <c r="B41" s="7">
+        <v>31.685788675267496</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.13421132473250452</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="7">
+        <v>5</v>
+      </c>
+      <c r="L41" s="7">
+        <v>268.7523599923453</v>
+      </c>
+      <c r="M41" s="7">
+        <v>-1.1334711034564293</v>
+      </c>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="25"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+    </row>
+    <row r="42" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="9">
         <v>6</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="11">
-        <v>0.99999715046159587</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="V18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="W18" s="11">
-        <v>0.21657792198407996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0.99999643807699479</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="V19" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="W19" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="11">
-        <v>0.98521674441591967</v>
-      </c>
-      <c r="M20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" s="14">
+      <c r="B42" s="9">
+        <v>159.1374336029937</v>
+      </c>
+      <c r="C42" s="9">
+        <v>-3.7433602993701243E-2</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="9">
         <v>6</v>
       </c>
-      <c r="M21" s="11"/>
-      <c r="V21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="9">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9">
-        <v>65308.297043969178</v>
-      </c>
-      <c r="D22" s="9">
-        <v>65308.297043969178</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1403732.125870778</v>
-      </c>
-      <c r="F22" s="9">
-        <v>3.0449538110702301E-12</v>
-      </c>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="X22" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y22" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z22" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA22" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="9">
-        <v>4</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0.1860990308345517</v>
-      </c>
-      <c r="D23" s="9">
-        <v>4.6524757708637926E-2</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="K23" t="s">
-        <v>66</v>
-      </c>
-      <c r="V23" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="W23" s="11">
-        <v>1</v>
-      </c>
-      <c r="X23" s="11">
-        <v>68963.328425895714</v>
-      </c>
-      <c r="Y23" s="11">
-        <v>68963.328425895714</v>
-      </c>
-      <c r="Z23" s="11">
-        <v>1470245.467085684</v>
-      </c>
-      <c r="AA23" s="11">
-        <v>7.241458966576287E-15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="13">
-        <v>5</v>
-      </c>
-      <c r="C24" s="13">
-        <v>65308.483143000012</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="V24" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="W24" s="11">
-        <v>5</v>
-      </c>
-      <c r="X24" s="11">
-        <v>0.23452998145471113</v>
-      </c>
-      <c r="Y24" s="11">
-        <v>4.6905996290942227E-2</v>
-      </c>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-    </row>
-    <row r="25" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K25" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L25" s="11">
-        <v>1</v>
-      </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11">
-        <v>1362535.4424342527</v>
-      </c>
-      <c r="O25" s="11">
-        <v>1362535.4424342527</v>
-      </c>
-      <c r="P25" s="11">
-        <v>1403732.1258708637</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>3.0449538110698621E-12</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="W25" s="14">
-        <v>6</v>
-      </c>
-      <c r="X25" s="14">
-        <v>68963.562955877162</v>
-      </c>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-    </row>
-    <row r="26" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="15" t="s">
+      <c r="L42" s="9">
+        <v>1343.6025690249076</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0.31909764175907185</v>
+      </c>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="25"/>
+      <c r="AD42" s="25"/>
+      <c r="AE42" s="25"/>
+    </row>
+    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+    </row>
+    <row r="44" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A45" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L26" s="11">
-        <v>4</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11">
-        <v>3.882608133910014</v>
-      </c>
-      <c r="O26" s="11">
-        <v>0.97065203347750351</v>
-      </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-    </row>
-    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="9">
-        <v>-8.5291165795524648E-3</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0.10388802405182966</v>
-      </c>
-      <c r="D27" s="9">
-        <v>-8.2099131804617781E-2</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0.93851196251853586</v>
-      </c>
-      <c r="F27" s="9">
-        <v>-0.29696851244692557</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0.27991027928782064</v>
-      </c>
-      <c r="H27" s="9">
-        <v>-0.29696851244692557</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0.27991027928782064</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="L27" s="14">
-        <v>5</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14">
-        <v>1362539.3250423865</v>
-      </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="X27" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y27" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z27" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA27" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC27" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD27" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0.21893220791986087</v>
-      </c>
-      <c r="C28" s="13">
-        <v>1.8478535016888282E-4</v>
-      </c>
-      <c r="D28" s="13">
-        <v>1184.7920179806995</v>
-      </c>
-      <c r="E28" s="13">
-        <v>3.0449538110702301E-12</v>
-      </c>
-      <c r="F28" s="13">
-        <v>0.21841916153887223</v>
-      </c>
-      <c r="G28" s="13">
-        <v>0.21944525430084952</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0.21841916153887223</v>
-      </c>
-      <c r="I28" s="13">
-        <v>0.21944525430084952</v>
-      </c>
-      <c r="J28" s="18"/>
-      <c r="V28" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="W28" s="11">
-        <v>-5.448301612160833E-2</v>
-      </c>
-      <c r="X28" s="11">
-        <v>9.3999431059690358E-2</v>
-      </c>
-      <c r="Y28" s="11">
-        <v>-0.57961006260783854</v>
-      </c>
-      <c r="Z28" s="11">
-        <v>0.58731182151210115</v>
-      </c>
-      <c r="AA28" s="11">
-        <v>-0.29611624616379639</v>
-      </c>
-      <c r="AB28" s="11">
-        <v>0.18715021392057976</v>
-      </c>
-      <c r="AC28" s="11">
-        <v>-0.29611624616379639</v>
-      </c>
-      <c r="AD28" s="11">
-        <v>0.18715021392057976</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K29" s="16"/>
-      <c r="L29" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="R29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="S29" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="T29" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="V29" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="W29" s="14">
-        <v>0.21897545779439398</v>
-      </c>
-      <c r="X29" s="14">
-        <v>1.8059283611157159E-4</v>
-      </c>
-      <c r="Y29" s="14">
-        <v>1212.5367899926514</v>
-      </c>
-      <c r="Z29" s="14">
-        <v>7.241458966576287E-15</v>
-      </c>
-      <c r="AA29" s="14">
-        <v>0.21851122913023951</v>
-      </c>
-      <c r="AB29" s="14">
-        <v>0.21943968645854844</v>
-      </c>
-      <c r="AC29" s="14">
-        <v>0.21851122913023951</v>
-      </c>
-      <c r="AD29" s="14">
-        <v>0.21943968645854844</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K30" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L30" s="11">
-        <v>3.980773420477135E-2</v>
-      </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11">
-        <v>0.47450311588139682</v>
-      </c>
-      <c r="O30" s="11">
-        <v>8.3893514863074975E-2</v>
-      </c>
-      <c r="P30" s="11">
-        <v>0.93717195197236269</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>-1.2776241192852342</v>
-      </c>
-      <c r="R30" s="11">
-        <v>1.3572395876947769</v>
-      </c>
-      <c r="S30" s="11">
-        <v>-1.2776241192852342</v>
-      </c>
-      <c r="T30" s="11">
-        <v>1.3572395876947769</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K31" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="L31" s="14">
-        <v>4.5676109511837577</v>
-      </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14">
-        <v>3.8552006443868751E-3</v>
-      </c>
-      <c r="O31" s="14">
-        <v>1184.7920179807356</v>
-      </c>
-      <c r="P31" s="14">
-        <v>3.0449538110698516E-12</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>4.5569071982250948</v>
-      </c>
-      <c r="R31" s="14">
-        <v>4.5783147041424206</v>
-      </c>
-      <c r="S31" s="14">
-        <v>4.5569071982250948</v>
-      </c>
-      <c r="T31" s="14">
-        <v>4.5783147041424206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>1</v>
-      </c>
-      <c r="B35" s="9">
-        <v>0.77062628560635238</v>
-      </c>
-      <c r="C35" s="9">
-        <v>-0.18232628560635233</v>
-      </c>
-      <c r="K35" t="s">
-        <v>85</v>
-      </c>
-      <c r="V35" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="W35" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="X35" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>2</v>
-      </c>
-      <c r="B36" s="9">
-        <v>3.0979972847988737</v>
-      </c>
-      <c r="C36" s="9">
-        <v>-0.15649728479887326</v>
-      </c>
-      <c r="V36" s="11">
-        <v>1</v>
-      </c>
-      <c r="W36" s="11">
-        <v>0.19831198459880872</v>
-      </c>
-      <c r="X36" s="11">
-        <v>-0.19831198459880872</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>3</v>
-      </c>
-      <c r="B37" s="9">
-        <v>5.9599277583290551</v>
-      </c>
-      <c r="C37" s="9">
-        <v>-7.6927758329054186E-2</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="O37" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="V37" s="11">
-        <v>2</v>
-      </c>
-      <c r="W37" s="11">
-        <v>0.72482630756221822</v>
-      </c>
-      <c r="X37" s="11">
-        <v>-0.13652630756221817</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>4</v>
-      </c>
-      <c r="B38" s="9">
-        <v>29.178174924247902</v>
-      </c>
-      <c r="C38" s="9">
-        <v>0.2368250757521011</v>
-      </c>
-      <c r="K38" s="11">
-        <v>1</v>
-      </c>
-      <c r="L38" s="11">
-        <v>2.7269332567861762</v>
-      </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11">
-        <v>0.83195563210271262</v>
-      </c>
-      <c r="O38">
-        <f>N38^2</f>
-        <v>0.69215017378742405</v>
-      </c>
-      <c r="V38" s="11">
-        <v>3</v>
-      </c>
-      <c r="W38" s="11">
-        <v>3.0526570769487344</v>
-      </c>
-      <c r="X38" s="11">
-        <v>-0.111157076948734</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>5</v>
-      </c>
-      <c r="B39" s="9">
-        <v>58.581865108924809</v>
-      </c>
-      <c r="C39" s="9">
-        <v>0.24813489107519615</v>
-      </c>
-      <c r="K39" s="11">
-        <v>2</v>
-      </c>
-      <c r="L39" s="11">
-        <v>13.475435347111796</v>
-      </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11">
-        <v>0.71400909733264939</v>
-      </c>
-      <c r="O39">
-        <f t="shared" ref="O39:O43" si="7">N39^2</f>
-        <v>0.50980899107378475</v>
-      </c>
-      <c r="V39" s="11">
-        <v>4</v>
-      </c>
-      <c r="W39" s="11">
-        <v>5.915152922449896</v>
-      </c>
-      <c r="X39" s="11">
-        <v>-3.2152922449895094E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
-        <v>6</v>
-      </c>
-      <c r="B40" s="13">
-        <v>294.21920863809305</v>
-      </c>
-      <c r="C40" s="13">
-        <v>-6.9208638093016361E-2</v>
-      </c>
-      <c r="K40" s="11">
-        <v>3</v>
-      </c>
-      <c r="L40" s="11">
-        <v>26.911062960018821</v>
-      </c>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11">
-        <v>0.35060370664784557</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="7"/>
-        <v>0.12292295911520855</v>
-      </c>
-      <c r="V40" s="11">
-        <v>5</v>
-      </c>
-      <c r="W40" s="11">
-        <v>29.137986833673811</v>
-      </c>
-      <c r="X40" s="11">
-        <v>0.27701316632619211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
-        <v>6</v>
-      </c>
-      <c r="B41" s="13">
-        <v>1343.6025690249071</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0.3190976417595266</v>
-      </c>
-      <c r="K41" s="11">
-        <v>4</v>
-      </c>
-      <c r="L41" s="11">
-        <v>134.39608386327501</v>
-      </c>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11">
-        <v>-1.0821949743861126</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="7"/>
-        <v>1.1711459625865588</v>
-      </c>
-      <c r="V41" s="11">
-        <v>6</v>
-      </c>
-      <c r="W41" s="11">
-        <v>58.547485692749888</v>
-      </c>
-      <c r="X41" s="11">
-        <v>0.28251430725011772</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K42" s="11">
-        <v>5</v>
-      </c>
-      <c r="L42" s="11">
-        <v>268.75235999234525</v>
-      </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11">
-        <v>-1.1334711034563725</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="7"/>
-        <v>1.2847567423706066</v>
-      </c>
-      <c r="V42" s="14">
-        <v>7</v>
-      </c>
-      <c r="W42" s="14">
-        <v>294.23137918201667</v>
-      </c>
-      <c r="X42" s="14">
-        <v>-8.1379182016632967E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="K43" s="14">
-        <v>6</v>
-      </c>
-      <c r="L43" s="14">
-        <v>1343.6025690249071</v>
-      </c>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14">
-        <v>0.3190976417595266</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="7"/>
-        <v>0.10182330497649117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-    </row>
-    <row r="45" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="10"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="25"/>
+      <c r="AD45" s="25"/>
+      <c r="AE45" s="25"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -2417,14 +3060,32 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="11">
-        <v>0.99913678675732565</v>
-      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="25"/>
+    </row>
+    <row r="47" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47"/>
+      <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -2432,14 +3093,34 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="11">
-        <v>0.99827431865175353</v>
-      </c>
+      <c r="J47" s="24"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="6"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
@@ -2447,13 +3128,35 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="11">
-        <v>0.99792918238210437</v>
+      <c r="J48" s="24"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="25"/>
+      <c r="AC48" s="25"/>
+      <c r="AD48" s="25"/>
+      <c r="AE48" s="25"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0.99924092193949743</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -2462,13 +3165,35 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="11">
-        <v>4.8787115983951139</v>
+      <c r="J49" s="24"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25"/>
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="25"/>
+      <c r="AC49" s="25"/>
+      <c r="AD49" s="25"/>
+      <c r="AE49" s="25"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.99848242007849675</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
@@ -2477,13 +3202,35 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="14">
-        <v>7</v>
+      <c r="J50" s="24"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
+      <c r="Z50" s="25"/>
+      <c r="AA50" s="25"/>
+      <c r="AB50" s="25"/>
+      <c r="AC50" s="25"/>
+      <c r="AD50" s="25"/>
+      <c r="AE50" s="25"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.99810302509812088</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -2492,10 +3239,36 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="25"/>
+      <c r="AB51" s="25"/>
+      <c r="AC51" s="25"/>
+      <c r="AD51" s="25"/>
+      <c r="AE51" s="25"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="7">
+        <v>2.6923524740569098</v>
+      </c>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
@@ -2503,12 +3276,36 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="25"/>
+      <c r="V52" s="25"/>
+      <c r="W52" s="25"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="25"/>
+      <c r="Z52" s="25"/>
+      <c r="AA52" s="25"/>
+      <c r="AB52" s="25"/>
+      <c r="AC52" s="25"/>
+      <c r="AD52" s="25"/>
+      <c r="AE52" s="25"/>
+    </row>
+    <row r="53" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="9">
+        <v>6</v>
+      </c>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
@@ -2516,209 +3313,450 @@
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>72</v>
-      </c>
+      <c r="J53" s="24"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="25"/>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="25"/>
+      <c r="AA53" s="25"/>
+      <c r="AB53" s="25"/>
+      <c r="AC53" s="25"/>
+      <c r="AD53" s="25"/>
+      <c r="AE53" s="25"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="11">
-        <v>1</v>
-      </c>
-      <c r="C55" s="11">
-        <v>68844.553821575581</v>
-      </c>
-      <c r="D55" s="11">
-        <v>68844.553821575581</v>
-      </c>
-      <c r="E55" s="11">
-        <v>2892.4062940883214</v>
-      </c>
-      <c r="F55" s="11">
-        <v>4.2028918326297201E-8</v>
-      </c>
+      <c r="J54" s="24"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="25"/>
+      <c r="V54" s="25"/>
+      <c r="W54" s="25"/>
+      <c r="X54" s="25"/>
+      <c r="Y54" s="25"/>
+      <c r="Z54" s="25"/>
+      <c r="AA54" s="25"/>
+      <c r="AB54" s="25"/>
+      <c r="AC54" s="25"/>
+      <c r="AD54" s="25"/>
+      <c r="AE54" s="25"/>
+    </row>
+    <row r="55" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" s="11">
-        <v>5</v>
-      </c>
-      <c r="C56" s="11">
-        <v>119.00913430157502</v>
-      </c>
-      <c r="D56" s="11">
-        <v>23.801826860315003</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="25"/>
+      <c r="V55" s="25"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="25"/>
+      <c r="Z55" s="25"/>
+      <c r="AA55" s="25"/>
+      <c r="AB55" s="25"/>
+      <c r="AC55" s="25"/>
+      <c r="AD55" s="25"/>
+      <c r="AE55" s="25"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="14">
-        <v>6</v>
-      </c>
-      <c r="C57" s="14">
-        <v>68963.562955877162</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+      <c r="X56" s="25"/>
+      <c r="Y56" s="25"/>
+      <c r="Z56" s="25"/>
+      <c r="AA56" s="25"/>
+      <c r="AB56" s="25"/>
+      <c r="AC56" s="25"/>
+      <c r="AD56" s="25"/>
+      <c r="AE56" s="25"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7">
+        <v>19077.113940621759</v>
+      </c>
+      <c r="D57" s="7">
+        <v>19077.113940621759</v>
+      </c>
+      <c r="E57" s="7">
+        <v>2631.7755155575519</v>
+      </c>
+      <c r="F57" s="7">
+        <v>8.6408056270436361E-7</v>
+      </c>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="25"/>
+      <c r="Z57" s="25"/>
+      <c r="AA57" s="25"/>
+      <c r="AB57" s="25"/>
+      <c r="AC57" s="25"/>
+      <c r="AD57" s="25"/>
+      <c r="AE57" s="25"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A58" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="7">
+        <v>4</v>
+      </c>
+      <c r="C58" s="7">
+        <v>28.995047378241452</v>
+      </c>
+      <c r="D58" s="7">
+        <v>7.248761844560363</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16" t="s">
+      <c r="J58" s="24"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="25"/>
+      <c r="W58" s="25"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="25"/>
+      <c r="Z58" s="25"/>
+      <c r="AA58" s="25"/>
+      <c r="AB58" s="25"/>
+      <c r="AC58" s="25"/>
+      <c r="AD58" s="25"/>
+      <c r="AE58" s="25"/>
+    </row>
+    <row r="59" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="9">
+        <v>5</v>
+      </c>
+      <c r="C59" s="9">
+        <v>19106.108988</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="25"/>
+      <c r="W59" s="25"/>
+      <c r="X59" s="25"/>
+      <c r="Y59" s="25"/>
+      <c r="Z59" s="25"/>
+      <c r="AA59" s="25"/>
+      <c r="AB59" s="25"/>
+      <c r="AC59" s="25"/>
+      <c r="AD59" s="25"/>
+      <c r="AE59" s="25"/>
+    </row>
+    <row r="60" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="25"/>
+      <c r="U60" s="25"/>
+      <c r="V60" s="25"/>
+      <c r="W60" s="25"/>
+      <c r="X60" s="25"/>
+      <c r="Y60" s="25"/>
+      <c r="Z60" s="25"/>
+      <c r="AA60" s="25"/>
+      <c r="AB60" s="25"/>
+      <c r="AC60" s="25"/>
+      <c r="AD60" s="25"/>
+      <c r="AE60" s="25"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J61" s="11"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="25"/>
+      <c r="V61" s="25"/>
+      <c r="W61" s="25"/>
+      <c r="X61" s="25"/>
+      <c r="Y61" s="25"/>
+      <c r="Z61" s="25"/>
+      <c r="AA61" s="25"/>
+      <c r="AB61" s="25"/>
+      <c r="AC61" s="25"/>
+      <c r="AD61" s="25"/>
+      <c r="AE61" s="25"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="16" t="s">
+      <c r="B62" s="7">
+        <v>-3.166878676942801</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1.3307749314427235</v>
+      </c>
+      <c r="D62" s="7">
+        <v>-2.3797252278486458</v>
+      </c>
+      <c r="E62" s="7">
+        <v>7.6011981534629777E-2</v>
+      </c>
+      <c r="F62" s="7">
+        <v>-6.8617022214668797</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0.52794486758127768</v>
+      </c>
+      <c r="H62" s="7">
+        <v>-6.8617022214668797</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0.52794486758127768</v>
+      </c>
+      <c r="J62" s="12"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="25"/>
+      <c r="T62" s="25"/>
+      <c r="U62" s="25"/>
+      <c r="V62" s="25"/>
+      <c r="W62" s="25"/>
+      <c r="X62" s="25"/>
+      <c r="Y62" s="25"/>
+      <c r="Z62" s="25"/>
+      <c r="AA62" s="25"/>
+      <c r="AB62" s="25"/>
+      <c r="AC62" s="25"/>
+      <c r="AD62" s="25"/>
+      <c r="AE62" s="25"/>
+    </row>
+    <row r="63" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J59" s="17"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="11">
-        <v>-4.8811598005730872</v>
-      </c>
-      <c r="C60" s="11">
-        <v>2.1634624433925831</v>
-      </c>
-      <c r="D60" s="11">
-        <v>-2.2561795863295924</v>
-      </c>
-      <c r="E60" s="11">
-        <v>7.3703712687858761E-2</v>
-      </c>
-      <c r="F60" s="11">
-        <v>-10.442517059639421</v>
-      </c>
-      <c r="G60" s="11">
-        <v>0.68019745849324664</v>
-      </c>
-      <c r="H60" s="11">
-        <v>-10.442517059639421</v>
-      </c>
-      <c r="I60" s="11">
-        <v>0.68019745849324664</v>
-      </c>
-      <c r="J60" s="9"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" s="14">
-        <v>759.58961712954601</v>
-      </c>
-      <c r="C61" s="14">
-        <v>14.12372883203613</v>
-      </c>
-      <c r="D61" s="14">
-        <v>53.781096066260332</v>
-      </c>
-      <c r="E61" s="14">
-        <v>4.2028918326297201E-8</v>
-      </c>
-      <c r="F61" s="14">
-        <v>723.28341634246101</v>
-      </c>
-      <c r="G61" s="14">
-        <v>795.89581791663102</v>
-      </c>
-      <c r="H61" s="14">
-        <v>723.28341634246101</v>
-      </c>
-      <c r="I61" s="14">
-        <v>795.89581791663102</v>
-      </c>
-      <c r="J61" s="18"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="9">
+        <v>412.62678762399031</v>
+      </c>
+      <c r="C63" s="9">
+        <v>8.0432764859340793</v>
+      </c>
+      <c r="D63" s="9">
+        <v>51.300833478195578</v>
+      </c>
+      <c r="E63" s="9">
+        <v>8.6408056270436361E-7</v>
+      </c>
+      <c r="F63" s="9">
+        <v>390.29507199486613</v>
+      </c>
+      <c r="G63" s="9">
+        <v>434.95850325311449</v>
+      </c>
+      <c r="H63" s="9">
+        <v>390.29507199486613</v>
+      </c>
+      <c r="I63" s="9">
+        <v>434.95850325311449</v>
+      </c>
+      <c r="J63" s="12"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="25"/>
+      <c r="U63" s="25"/>
+      <c r="V63" s="25"/>
+      <c r="W63" s="25"/>
+      <c r="X63" s="25"/>
+      <c r="Y63" s="25"/>
+      <c r="Z63" s="25"/>
+      <c r="AA63" s="25"/>
+      <c r="AB63" s="25"/>
+      <c r="AC63" s="25"/>
+      <c r="AD63" s="25"/>
+      <c r="AE63" s="25"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -2728,11 +3766,31 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>85</v>
-      </c>
+      <c r="J64" s="24"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25"/>
+      <c r="U64" s="25"/>
+      <c r="V64" s="25"/>
+      <c r="W64" s="25"/>
+      <c r="X64" s="25"/>
+      <c r="Y64" s="25"/>
+      <c r="Z64" s="25"/>
+      <c r="AA64" s="25"/>
+      <c r="AB64" s="25"/>
+      <c r="AC64" s="25"/>
+      <c r="AD64" s="25"/>
+      <c r="AE64" s="25"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -2741,8 +3799,30 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J65" s="24"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="25"/>
+      <c r="T65" s="25"/>
+      <c r="U65" s="25"/>
+      <c r="V65" s="25"/>
+      <c r="W65" s="25"/>
+      <c r="X65" s="25"/>
+      <c r="Y65" s="25"/>
+      <c r="Z65" s="25"/>
+      <c r="AA65" s="25"/>
+      <c r="AB65" s="25"/>
+      <c r="AC65" s="25"/>
+      <c r="AD65" s="25"/>
+      <c r="AE65" s="25"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -2752,50 +3832,106 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="J66" s="24"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="25"/>
+      <c r="W66" s="25"/>
+      <c r="X66" s="25"/>
+      <c r="Y66" s="25"/>
+      <c r="Z66" s="25"/>
+      <c r="AA66" s="25"/>
+      <c r="AB66" s="25"/>
+      <c r="AC66" s="25"/>
+      <c r="AD66" s="25"/>
+      <c r="AE66" s="25"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
-        <v>1</v>
-      </c>
-      <c r="B68" s="11">
-        <v>-4.0020051511175945</v>
-      </c>
-      <c r="C68" s="11">
-        <v>4.0020051511175945</v>
-      </c>
+      <c r="J67" s="24"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25"/>
+      <c r="T67" s="25"/>
+      <c r="U67" s="25"/>
+      <c r="V67" s="25"/>
+      <c r="W67" s="25"/>
+      <c r="X67" s="25"/>
+      <c r="Y67" s="25"/>
+      <c r="Z67" s="25"/>
+      <c r="AA67" s="25"/>
+      <c r="AB67" s="25"/>
+      <c r="AC67" s="25"/>
+      <c r="AD67" s="25"/>
+      <c r="AE67" s="25"/>
+    </row>
+    <row r="68" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
-        <v>2</v>
-      </c>
-      <c r="B69" s="11">
-        <v>-2.249901649732176</v>
-      </c>
-      <c r="C69" s="11">
-        <v>2.8382016497321763</v>
+      <c r="J68" s="24"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
+      <c r="T68" s="25"/>
+      <c r="U68" s="25"/>
+      <c r="V68" s="25"/>
+      <c r="W68" s="25"/>
+      <c r="X68" s="25"/>
+      <c r="Y68" s="25"/>
+      <c r="Z68" s="25"/>
+      <c r="AA68" s="25"/>
+      <c r="AB68" s="25"/>
+      <c r="AC68" s="25"/>
+      <c r="AD68" s="25"/>
+      <c r="AE68" s="25"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A69" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
@@ -2803,16 +3939,38 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
-        <v>3</v>
-      </c>
-      <c r="B70" s="11">
-        <v>1.1815378350424348</v>
-      </c>
-      <c r="C70" s="11">
-        <v>1.7599621649575656</v>
+      <c r="J69" s="24"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="25"/>
+      <c r="W69" s="25"/>
+      <c r="X69" s="25"/>
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="25"/>
+      <c r="AA69" s="25"/>
+      <c r="AB69" s="25"/>
+      <c r="AC69" s="25"/>
+      <c r="AD69" s="25"/>
+      <c r="AE69" s="25"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A70" s="7">
+        <v>1</v>
+      </c>
+      <c r="B70" s="7">
+        <v>-1.7375179093564292</v>
+      </c>
+      <c r="C70" s="7">
+        <v>2.0557179093564293</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
@@ -2820,16 +3978,38 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
-        <v>4</v>
-      </c>
-      <c r="B71" s="11">
-        <v>4.6928343319972328</v>
-      </c>
-      <c r="C71" s="11">
-        <v>1.1901656680027681</v>
+      <c r="J70" s="24"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="25"/>
+      <c r="W70" s="25"/>
+      <c r="X70" s="25"/>
+      <c r="Y70" s="25"/>
+      <c r="Z70" s="25"/>
+      <c r="AA70" s="25"/>
+      <c r="AB70" s="25"/>
+      <c r="AC70" s="25"/>
+      <c r="AD70" s="25"/>
+      <c r="AE70" s="25"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A71" s="7">
+        <v>2</v>
+      </c>
+      <c r="B71" s="7">
+        <v>0.12652001269851265</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1.4644799873014873</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -2837,16 +4017,38 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="11">
-        <v>5</v>
-      </c>
-      <c r="B72" s="11">
-        <v>33.265360439300757</v>
-      </c>
-      <c r="C72" s="11">
-        <v>-3.8503604393007542</v>
+      <c r="J71" s="24"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="25"/>
+      <c r="U71" s="25"/>
+      <c r="V71" s="25"/>
+      <c r="W71" s="25"/>
+      <c r="X71" s="25"/>
+      <c r="Y71" s="25"/>
+      <c r="Z71" s="25"/>
+      <c r="AA71" s="25"/>
+      <c r="AB71" s="25"/>
+      <c r="AC71" s="25"/>
+      <c r="AD71" s="25"/>
+      <c r="AE71" s="25"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A72" s="7">
+        <v>3</v>
+      </c>
+      <c r="B72" s="7">
+        <v>2.0339381254012432</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1.1480618745987567</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -2855,15 +4057,15 @@
       <c r="H72"/>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
-        <v>6</v>
-      </c>
-      <c r="B73" s="11">
-        <v>67.183146815293682</v>
-      </c>
-      <c r="C73" s="11">
-        <v>-8.3531468152936768</v>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A73" s="7">
+        <v>4</v>
+      </c>
+      <c r="B73" s="7">
+        <v>17.555200391349953</v>
+      </c>
+      <c r="C73" s="7">
+        <v>-1.6452003913499524</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -2872,15 +4074,15 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14">
-        <v>7</v>
-      </c>
-      <c r="B74" s="14">
-        <v>291.73682737921575</v>
-      </c>
-      <c r="C74" s="14">
-        <v>2.4131726207842803</v>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A74" s="7">
+        <v>5</v>
+      </c>
+      <c r="B74" s="7">
+        <v>35.9801326442823</v>
+      </c>
+      <c r="C74" s="7">
+        <v>-4.1601326442822995</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -2889,9 +4091,34 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
+    <row r="75" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="9">
+        <v>6</v>
+      </c>
+      <c r="B75" s="9">
+        <v>157.96292673562442</v>
+      </c>
+      <c r="C75" s="9">
+        <v>1.137073264375573</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2903,13 +4130,13 @@
       <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2929,12 +4156,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="18">
         <v>42464.413194444445</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C2">
         <v>84.7</v>
@@ -2949,12 +4176,12 @@
         <v>202.21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
         <v>42464.413194444445</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C3">
         <v>79.7</v>
@@ -2969,12 +4196,12 @@
         <v>212.84</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
         <v>42464.413194444445</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C4">
         <v>73.3</v>
@@ -2989,12 +4216,12 @@
         <v>223.47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
         <v>42464.413194444445</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C5">
         <v>302.2</v>
@@ -3009,12 +4236,12 @@
         <v>234.11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
         <v>42464.413194444445</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C6">
         <v>332.8</v>
@@ -3029,12 +4256,12 @@
         <v>244.75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
         <v>42464.413194444445</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C7">
         <v>322</v>
@@ -3049,12 +4276,12 @@
         <v>255.38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="18">
         <v>42464.413194444445</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C8">
         <v>1189</v>
@@ -3069,12 +4296,12 @@
         <v>266.13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
         <v>42464.413194444445</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C9">
         <v>1365.7</v>
@@ -3089,12 +4316,12 @@
         <v>276.76</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="18">
         <v>42464.413194444445</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C10">
         <v>1322.5</v>
@@ -3109,12 +4336,12 @@
         <v>287.39999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="18">
         <v>42464.413194444445</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C11">
         <v>2723.1</v>
@@ -3129,12 +4356,12 @@
         <v>298.04000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="18">
         <v>42464.413194444445</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C12">
         <v>2791.2</v>
@@ -3149,12 +4376,12 @@
         <v>308.69</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="18">
         <v>42464.413194444445</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C13">
         <v>2697</v>
@@ -3169,12 +4396,12 @@
         <v>319.32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="18">
         <v>42464.413194444445</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C14">
         <v>5857.2</v>
@@ -3189,12 +4416,12 @@
         <v>329.98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="18">
         <v>42464.413194444445</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C15">
         <v>5974.5</v>
@@ -3209,12 +4436,12 @@
         <v>340.63</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="18">
         <v>42464.413194444445</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C16">
         <v>6703.1</v>
@@ -3229,12 +4456,12 @@
         <v>351.29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="18">
         <v>42464.413194444445</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C17">
         <v>12338.6</v>
@@ -3249,12 +4476,12 @@
         <v>361.98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="18">
         <v>42464.413194444445</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C18">
         <v>12636.7</v>
@@ -3269,12 +4496,12 @@
         <v>372.66</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="18">
         <v>42464.413194444445</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C19">
         <v>12643.4</v>
@@ -3289,12 +4516,12 @@
         <v>383.35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="18">
         <v>42465.597222222219</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C20">
         <v>81</v>
@@ -3309,12 +4536,12 @@
         <v>202.18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="18">
         <v>42465.597222222219</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C21">
         <v>74.2</v>
@@ -3329,12 +4556,12 @@
         <v>212.81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="18">
         <v>42465.597222222219</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C22">
         <v>75.5</v>
@@ -3349,12 +4576,12 @@
         <v>223.44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="18">
         <v>42465.597222222219</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C23">
         <v>294.89999999999998</v>
@@ -3369,12 +4596,12 @@
         <v>234.08</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="18">
         <v>42465.597222222219</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C24">
         <v>320.60000000000002</v>
@@ -3389,12 +4616,12 @@
         <v>244.71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="18">
         <v>42465.597222222219</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C25">
         <v>315.2</v>
@@ -3409,12 +4636,12 @@
         <v>255.36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="18">
         <v>42465.597222222219</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C26">
         <v>1181.9000000000001</v>
@@ -3429,12 +4656,12 @@
         <v>266.10000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="18">
         <v>42465.597222222219</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C27">
         <v>1342.9</v>
@@ -3449,12 +4676,12 @@
         <v>276.73</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="18">
         <v>42465.597222222219</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C28">
         <v>1326.5</v>
@@ -3469,12 +4696,12 @@
         <v>287.37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="18">
         <v>42465.597222222219</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C29">
         <v>2664.4</v>
@@ -3489,12 +4716,12 @@
         <v>298</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="18">
         <v>42465.597222222219</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C30">
         <v>2761.1</v>
@@ -3509,12 +4736,12 @@
         <v>308.63</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="18">
         <v>42465.597222222219</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C31">
         <v>2679</v>
@@ -3529,12 +4756,12 @@
         <v>319.29000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="18">
         <v>42465.597222222219</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C32">
         <v>5824.2</v>
@@ -3549,12 +4776,12 @@
         <v>329.93</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="18">
         <v>42465.597222222219</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C33">
         <v>5954.9</v>
@@ -3569,12 +4796,12 @@
         <v>340.6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="18">
         <v>42465.597222222219</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C34">
         <v>6711.2</v>
@@ -3589,12 +4816,12 @@
         <v>351.25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="18">
         <v>42465.597222222219</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C35">
         <v>12310.4</v>
@@ -3609,12 +4836,12 @@
         <v>361.94</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="18">
         <v>42465.597222222219</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C36">
         <v>12627.1</v>
@@ -3629,12 +4856,12 @@
         <v>372.63</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="18">
         <v>42465.597222222219</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C37">
         <v>12773.7</v>
@@ -3649,12 +4876,12 @@
         <v>383.31</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="18">
         <v>42466.703472222223</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C38">
         <v>84.4</v>
@@ -3669,12 +4896,12 @@
         <v>202.17</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="18">
         <v>42466.703472222223</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C39">
         <v>74.2</v>
@@ -3689,12 +4916,12 @@
         <v>212.81</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="24">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="18">
         <v>42466.703472222223</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C40">
         <v>76.5</v>
@@ -3709,12 +4936,12 @@
         <v>223.44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="18">
         <v>42466.703472222223</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C41">
         <v>307</v>
@@ -3729,12 +4956,12 @@
         <v>234.07</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="18">
         <v>42466.703472222223</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C42">
         <v>325.2</v>
@@ -3749,12 +4976,12 @@
         <v>244.71</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="18">
         <v>42466.703472222223</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C43">
         <v>333.4</v>
@@ -3769,12 +4996,12 @@
         <v>255.34</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="18">
         <v>42466.703472222223</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C44">
         <v>1187.0999999999999</v>
@@ -3789,12 +5016,12 @@
         <v>266.08</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="18">
         <v>42466.703472222223</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C45">
         <v>1363.6</v>
@@ -3809,12 +5036,12 @@
         <v>276.70999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="18">
         <v>42466.703472222223</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C46">
         <v>1308.2</v>
@@ -3829,12 +5056,12 @@
         <v>287.33999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="18">
         <v>42466.703472222223</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C47">
         <v>2644.8</v>
@@ -3849,12 +5076,12 @@
         <v>297.99</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="24">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="18">
         <v>42466.703472222223</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C48">
         <v>2807.2</v>
@@ -3869,12 +5096,12 @@
         <v>308.62</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="18">
         <v>42466.703472222223</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C49">
         <v>2659.2</v>
@@ -3889,12 +5116,12 @@
         <v>319.27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="24">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="18">
         <v>42466.703472222223</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C50">
         <v>5950</v>
@@ -3909,12 +5136,12 @@
         <v>329.91</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="24">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="18">
         <v>42466.703472222223</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C51">
         <v>5967.7</v>
@@ -3929,12 +5156,12 @@
         <v>340.56</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="24">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="18">
         <v>42466.703472222223</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C52">
         <v>6767.6</v>
@@ -3949,12 +5176,12 @@
         <v>351.22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="24">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="18">
         <v>42466.703472222223</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C53">
         <v>12318</v>
@@ -3969,12 +5196,12 @@
         <v>361.9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="24">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="18">
         <v>42466.703472222223</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C54">
         <v>12837.1</v>
@@ -3989,12 +5216,12 @@
         <v>372.58</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="24">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="18">
         <v>42466.703472222223</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C55">
         <v>12811.3</v>
@@ -4009,12 +5236,12 @@
         <v>383.26</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="24">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="18">
         <v>42471.644444444442</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C56">
         <v>81.400000000000006</v>
@@ -4029,12 +5256,12 @@
         <v>202.15</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="24">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="18">
         <v>42471.644444444442</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C57">
         <v>78.3</v>
@@ -4049,12 +5276,12 @@
         <v>212.79</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="24">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="18">
         <v>42471.644444444442</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C58">
         <v>69.7</v>
@@ -4069,12 +5296,12 @@
         <v>223.41</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="24">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="18">
         <v>42471.644444444442</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C59">
         <v>306.7</v>
@@ -4089,12 +5316,12 @@
         <v>234.04</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="24">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="18">
         <v>42471.644444444442</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C60">
         <v>337</v>
@@ -4109,12 +5336,12 @@
         <v>244.67</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="24">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="18">
         <v>42471.644444444442</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C61">
         <v>337</v>
@@ -4129,12 +5356,12 @@
         <v>255.31</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="24">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="18">
         <v>42471.644444444442</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C62">
         <v>1196.9000000000001</v>
@@ -4149,12 +5376,12 @@
         <v>266.04000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="24">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="18">
         <v>42471.644444444442</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C63">
         <v>1361.8</v>
@@ -4169,12 +5396,12 @@
         <v>276.68</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="24">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="18">
         <v>42471.644444444442</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C64">
         <v>1356.7</v>
@@ -4189,12 +5416,12 @@
         <v>287.31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="24">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="18">
         <v>42471.644444444442</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C65">
         <v>2741.7</v>
@@ -4209,12 +5436,12 @@
         <v>297.95</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="24">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="18">
         <v>42471.644444444442</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C66">
         <v>2812.7</v>
@@ -4229,12 +5456,12 @@
         <v>308.58</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="24">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="18">
         <v>42471.644444444442</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C67">
         <v>2748.3</v>
@@ -4249,12 +5476,12 @@
         <v>319.23</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="24">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="18">
         <v>42471.644444444442</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C68">
         <v>6029.7</v>
@@ -4269,12 +5496,12 @@
         <v>329.88</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="24">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="18">
         <v>42471.644444444442</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C69">
         <v>5982.2</v>
@@ -4289,12 +5516,12 @@
         <v>340.53</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="24">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="18">
         <v>42471.644444444442</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C70">
         <v>6828.1</v>
@@ -4309,12 +5536,12 @@
         <v>351.19</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="24">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="18">
         <v>42471.644444444442</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C71">
         <v>12521.6</v>
@@ -4329,12 +5556,12 @@
         <v>361.87</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="24">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="18">
         <v>42471.644444444442</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C72">
         <v>12916.4</v>
@@ -4349,12 +5576,12 @@
         <v>372.54</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="24">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="18">
         <v>42471.644444444442</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C73">
         <v>13064.3</v>
@@ -4369,12 +5596,12 @@
         <v>383.22</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="24">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="18">
         <v>42472.4375</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C74">
         <v>86.1</v>
@@ -4389,12 +5616,12 @@
         <v>202.13</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="24">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="18">
         <v>42472.4375</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C75">
         <v>76.400000000000006</v>
@@ -4409,12 +5636,12 @@
         <v>212.76</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="24">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="18">
         <v>42472.4375</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C76">
         <v>77.599999999999994</v>
@@ -4429,12 +5656,12 @@
         <v>223.39</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="24">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="18">
         <v>42472.4375</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C77">
         <v>313.3</v>
@@ -4449,12 +5676,12 @@
         <v>234.02</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="24">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="18">
         <v>42472.4375</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C78">
         <v>318.2</v>
@@ -4469,12 +5696,12 @@
         <v>244.66</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="24">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="18">
         <v>42472.4375</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C79">
         <v>345.6</v>
@@ -4489,12 +5716,12 @@
         <v>255.29</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="24">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="18">
         <v>42472.4375</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C80">
         <v>1191.8</v>
@@ -4509,12 +5736,12 @@
         <v>266.02999999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="24">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="18">
         <v>42472.4375</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C81">
         <v>1368.1</v>
@@ -4529,12 +5756,12 @@
         <v>276.66000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="24">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="18">
         <v>42472.4375</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C82">
         <v>1368</v>
@@ -4549,12 +5776,12 @@
         <v>287.29000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="24">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="18">
         <v>42472.4375</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C83">
         <v>2740.9</v>
@@ -4569,12 +5796,12 @@
         <v>297.93</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="24">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="18">
         <v>42472.4375</v>
       </c>
       <c r="B84" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C84">
         <v>2795.8</v>
@@ -4589,12 +5816,12 @@
         <v>308.57</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="24">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="18">
         <v>42472.4375</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C85">
         <v>2717.6</v>
@@ -4609,12 +5836,12 @@
         <v>319.2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="24">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="18">
         <v>42472.4375</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C86">
         <v>6012.7</v>
@@ -4629,12 +5856,12 @@
         <v>329.86</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="24">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="18">
         <v>42472.4375</v>
       </c>
       <c r="B87" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C87">
         <v>6069.3</v>
@@ -4649,12 +5876,12 @@
         <v>340.51</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="24">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="18">
         <v>42472.4375</v>
       </c>
       <c r="B88" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C88">
         <v>6750.4</v>
@@ -4669,12 +5896,12 @@
         <v>351.16</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="24">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="18">
         <v>42472.4375</v>
       </c>
       <c r="B89" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C89">
         <v>12580.6</v>
@@ -4689,12 +5916,12 @@
         <v>361.84</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="24">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="18">
         <v>42472.4375</v>
       </c>
       <c r="B90" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C90">
         <v>12852.1</v>
@@ -4709,12 +5936,12 @@
         <v>372.5</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="24">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="18">
         <v>42472.4375</v>
       </c>
       <c r="B91" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C91">
         <v>13035</v>
@@ -4739,26 +5966,26 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D19"/>
+      <selection activeCell="F2" sqref="F2:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
@@ -4767,21 +5994,21 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C2">
         <v>1.3919999999999999</v>
@@ -4790,23 +6017,23 @@
         <v>9.6354239999999994E-2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C2+'Calibration Data'!$B$27</f>
-        <v>0.29622451684489387</v>
-      </c>
-      <c r="G2" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F2-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297862577938594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(C2-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.16012187572195</v>
+      </c>
+      <c r="G2" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F2-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664735761323623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>124</v>
+        <v>118</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C3">
         <v>1.276</v>
@@ -4815,23 +6042,23 @@
         <v>9.2254799999999998E-2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C3+'Calibration Data'!$B$27</f>
-        <v>0.27082838072619003</v>
-      </c>
-      <c r="G3" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F3-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297862507124306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(C3-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.14638556169798103</v>
+      </c>
+      <c r="G3" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F3-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.1266474947961356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C4">
         <v>1.242</v>
@@ -4840,23 +6067,23 @@
         <v>9.1063439999999995E-2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C4+'Calibration Data'!$B$27</f>
-        <v>0.26338468565691475</v>
-      </c>
-      <c r="G4" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F4-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297862488159746</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(C4-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.14235940069095562</v>
+      </c>
+      <c r="G4" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F4-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664753500770867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C5">
         <v>5.0803333333333303</v>
@@ -4865,23 +6092,23 @@
         <v>0.18400967333333301</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C5+'Calibration Data'!$B$27</f>
-        <v>1.1037194770559799</v>
-      </c>
-      <c r="G5" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F5-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297869758100831</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(C5-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.59688140065073425</v>
+      </c>
+      <c r="G5" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F5-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664300343145105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C6">
         <v>5.4459999999999997</v>
@@ -4890,23 +6117,23 @@
         <v>0.19071891999999999</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C6+'Calibration Data'!$B$27</f>
-        <v>1.1837756877520098</v>
-      </c>
-      <c r="G6" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F6-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297870990642933</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(C6-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.64018236755962532</v>
+      </c>
+      <c r="G6" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F6-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.1266425725632859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C7">
         <v>5.5106666666666699</v>
@@ -4915,23 +6142,23 @@
         <v>0.191660986666667</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C7+'Calibration Data'!$B$27</f>
-        <v>1.1979333038641615</v>
-      </c>
-      <c r="G7" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F7-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297871218387531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(C7-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.64783996790632115</v>
+      </c>
+      <c r="G7" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F7-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664249638123623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C8">
         <v>19.822333333333301</v>
@@ -4940,23 +6167,23 @@
         <v>0.36354159333333302</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C8+'Calibration Data'!$B$27</f>
-        <v>4.3312180862105629</v>
-      </c>
-      <c r="G8" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F8-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297993889719926</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(C8-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>2.3425774466968603</v>
+      </c>
+      <c r="G8" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F8-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12662574886890693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="21" t="s">
         <v>124</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C9">
         <v>22.673666666666701</v>
@@ -4965,23 +6192,23 @@
         <v>0.38862664666666702</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C9+'Calibration Data'!$B$27</f>
-        <v>4.9554667883927408</v>
-      </c>
-      <c r="G9" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F9-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23298035518556603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(C9-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>2.6802223609527043</v>
+      </c>
+      <c r="G9" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F9-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12662243904258613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C10">
         <v>22.273</v>
@@ -4990,23 +6217,23 @@
         <v>0.38576835999999998</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C10+'Calibration Data'!$B$27</f>
-        <v>4.8677479504195089</v>
-      </c>
-      <c r="G10" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F10-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23298029324030628</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(C10-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>2.6327768165365772</v>
+      </c>
+      <c r="G10" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F10-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.1266229035983662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C11">
         <v>45.049666666666702</v>
@@ -5015,23 +6242,23 @@
         <v>0.54870494000000003</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C11+'Calibration Data'!$B$27</f>
-        <v>9.8542938728075473</v>
-      </c>
-      <c r="G11" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F11-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23298560468995966</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(C11-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>5.3299099695762422</v>
+      </c>
+      <c r="G11" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F11-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12659677428470054</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>124</v>
+        <v>127</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C12">
         <v>46.56</v>
@@ -5040,23 +6267,23 @@
         <v>0.55685759999999995</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C12+'Calibration Data'!$B$27</f>
-        <v>10.18495448416917</v>
-      </c>
-      <c r="G12" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F12-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23298608572874935</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(C12-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>5.5087583570549841</v>
+      </c>
+      <c r="G12" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F12-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12659506173868512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C13">
         <v>45.003666666666703</v>
@@ -5065,23 +6292,23 @@
         <v>0.54814465999999995</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C13+'Calibration Data'!$B$27</f>
-        <v>9.8442229912432335</v>
-      </c>
-      <c r="G13" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F13-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23298559029047033</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(C13-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>5.3244628105667378</v>
+      </c>
+      <c r="G13" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F13-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12659682648270595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>124</v>
+        <v>129</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C14">
         <v>98.912666666666695</v>
@@ -5090,23 +6317,23 @@
         <v>0.81306212</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C14+'Calibration Data'!$B$27</f>
-        <v>21.646639387995013</v>
-      </c>
-      <c r="G14" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F14-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23301266279334218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(C14-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>11.708177920205918</v>
+      </c>
+      <c r="G14" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F14-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.1265372462539151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>124</v>
+        <v>130</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C15">
         <v>99.828666666666706</v>
@@ -5115,23 +6342,23 @@
         <v>0.81659849333333301</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C15+'Calibration Data'!$B$27</f>
-        <v>21.847181290449608</v>
-      </c>
-      <c r="G15" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F15-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23301329913948549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(C15-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>11.816647434395191</v>
+      </c>
+      <c r="G15" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F15-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12653626144503002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C16">
         <v>112.53466666666699</v>
@@ -5140,23 +6367,23 @@
         <v>0.86651693333333302</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C16+'Calibration Data'!$B$27</f>
-        <v>24.628933924279423</v>
-      </c>
-      <c r="G16" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F16-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23302273365697004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(C16-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>13.321247486020658</v>
+      </c>
+      <c r="G16" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F16-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.1265226960052131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>124</v>
+        <v>132</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C17">
         <v>206.89733333333299</v>
@@ -5165,23 +6392,23 @@
         <v>1.17517685333333</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C17+'Calibration Data'!$B$27</f>
-        <v>45.287960882818467</v>
-      </c>
-      <c r="G17" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F17-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.2331282555649446</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(C17-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>24.495344222852008</v>
+      </c>
+      <c r="G17" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F17-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12642750218520346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>124</v>
+        <v>133</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C18">
         <v>212.898</v>
@@ -5190,23 +6417,23 @@
         <v>1.1922288000000001</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C18+'Calibration Data'!$B$27</f>
-        <v>46.601700085142987</v>
-      </c>
-      <c r="G18" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F18-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23313707818682367</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(C18-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>25.205922168425296</v>
+      </c>
+      <c r="G18" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F18-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12642177988769618</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>124</v>
+        <v>134</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C19">
         <v>214.42566666666701</v>
@@ -5215,159 +6442,159 @@
         <v>1.1922067066666699</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C19+'Calibration Data'!$B$27</f>
-        <v>46.936155521441968</v>
-      </c>
-      <c r="G19" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F19-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23313936458963935</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+        <f>(C19-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>25.38682310857433</v>
+      </c>
+      <c r="G19" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F19-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12642032941922363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="B29" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="B30" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="B31" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="B32" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="B33" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="B34" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="B35" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="B36" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="B37" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5380,41 +6607,41 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
+      <selection pane="bottomRight" activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5434,34 +6661,34 @@
         <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" t="s">
         <v>92</v>
-      </c>
-      <c r="J1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P1" t="s">
-        <v>101</v>
       </c>
       <c r="Q1" t="s">
         <v>30</v>
@@ -5482,12 +6709,12 @@
         <v>33</v>
       </c>
       <c r="W1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5512,11 +6739,11 @@
       </c>
       <c r="I2" s="1">
         <f>'Count-&gt;Actual Activity'!F2</f>
-        <v>0.29622451684489387</v>
+        <v>0.16012187572195</v>
       </c>
       <c r="J2" s="1">
         <f>'Count-&gt;Actual Activity'!G2</f>
-        <v>0.23297862577938594</v>
+        <v>0.12664735761323623</v>
       </c>
       <c r="K2" s="1">
         <v>10</v>
@@ -5530,11 +6757,11 @@
       <c r="P2" s="1"/>
       <c r="Q2">
         <f>I2/K2</f>
-        <v>2.9622451684489386E-2</v>
+        <v>1.6012187572195E-2</v>
       </c>
       <c r="R2">
         <f>SQRT((L2/K2)^2+(J2/I2)^2)*Q2</f>
-        <v>2.3297937905726478E-2</v>
+        <v>1.2664776250086413E-2</v>
       </c>
       <c r="S2">
         <f>B2*Parameters!$B$6</f>
@@ -5546,16 +6773,16 @@
       </c>
       <c r="U2">
         <f t="shared" ref="U2:U19" si="0">(S2-Q2*G2)/E2</f>
-        <v>-99.404200283521433</v>
+        <v>-53.732173061057047</v>
       </c>
       <c r="W2" t="e">
         <f t="shared" ref="W2:W19" si="1">(S2-Q2*G2)/S2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5580,11 +6807,11 @@
       </c>
       <c r="I3" s="1">
         <f>'Count-&gt;Actual Activity'!F3</f>
-        <v>0.27082838072619003</v>
+        <v>0.14638556169798103</v>
       </c>
       <c r="J3" s="1">
         <f>'Count-&gt;Actual Activity'!G3</f>
-        <v>0.23297862507124306</v>
+        <v>0.1266474947961356</v>
       </c>
       <c r="K3" s="1">
         <v>10</v>
@@ -5598,11 +6825,11 @@
       <c r="P3" s="1"/>
       <c r="Q3">
         <f t="shared" ref="Q3:Q19" si="2">I3/K3</f>
-        <v>2.7082838072619003E-2</v>
+        <v>1.4638556169798103E-2</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R19" si="3">SQRT((L3/K3)^2+(J3/I3)^2)*Q3</f>
-        <v>2.3297925472482325E-2</v>
+        <v>1.2664783319531326E-2</v>
       </c>
       <c r="S3">
         <f>B3*Parameters!$B$6</f>
@@ -5614,16 +6841,16 @@
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>-91.806230754640694</v>
+        <v>-49.622224304400348</v>
       </c>
       <c r="W3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5648,11 +6875,11 @@
       </c>
       <c r="I4" s="1">
         <f>'Count-&gt;Actual Activity'!F4</f>
-        <v>0.26338468565691475</v>
+        <v>0.14235940069095562</v>
       </c>
       <c r="J4" s="1">
         <f>'Count-&gt;Actual Activity'!G4</f>
-        <v>0.23297862488159746</v>
+        <v>0.12664753500770867</v>
       </c>
       <c r="K4" s="1">
         <v>10</v>
@@ -5666,11 +6893,11 @@
       <c r="P4" s="1"/>
       <c r="Q4">
         <f t="shared" si="2"/>
-        <v>2.6338468565691477E-2</v>
+        <v>1.4235940069095562E-2</v>
       </c>
       <c r="R4">
         <f t="shared" si="3"/>
-        <v>2.329792203989246E-2</v>
+        <v>1.2664785504825833E-2</v>
       </c>
       <c r="S4">
         <f>B4*Parameters!$B$6</f>
@@ -5682,16 +6909,16 @@
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>-85.237762348516114</v>
+        <v>-46.071003459856186</v>
       </c>
       <c r="W4" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>1.5800000000000002E-2</v>
@@ -5716,11 +6943,11 @@
       </c>
       <c r="I5" s="1">
         <f>'Count-&gt;Actual Activity'!F5</f>
-        <v>1.1037194770559799</v>
+        <v>0.59688140065073425</v>
       </c>
       <c r="J5" s="1">
         <f>'Count-&gt;Actual Activity'!G5</f>
-        <v>0.23297869758100831</v>
+        <v>0.12664300343145105</v>
       </c>
       <c r="K5" s="1">
         <v>10</v>
@@ -5734,32 +6961,32 @@
       <c r="P5" s="1"/>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>0.11037194770559799</v>
+        <v>5.9688140065073426E-2</v>
       </c>
       <c r="R5">
         <f t="shared" si="3"/>
-        <v>2.3298915492631637E-2</v>
+        <v>1.2664862963239789E-2</v>
       </c>
       <c r="S5">
         <f>B5*Parameters!$B$6</f>
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="T5">
         <f>SQRT((C5/B5)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S5</f>
-        <v>6.3708500822833178E-2</v>
+        <v>3.422927639369442E-2</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>-35.903048511200922</v>
+        <v>-19.322424239949541</v>
       </c>
       <c r="W5">
         <f t="shared" si="1"/>
-        <v>-0.10614693425915166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-0.10558110173199796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>1.5800000000000002E-2</v>
@@ -5784,11 +7011,11 @@
       </c>
       <c r="I6" s="1">
         <f>'Count-&gt;Actual Activity'!F6</f>
-        <v>1.1837756877520098</v>
+        <v>0.64018236755962532</v>
       </c>
       <c r="J6" s="1">
         <f>'Count-&gt;Actual Activity'!G6</f>
-        <v>0.23297870990642933</v>
+        <v>0.1266425725632859</v>
       </c>
       <c r="K6" s="1">
         <v>10</v>
@@ -5802,32 +7029,32 @@
       <c r="P6" s="1"/>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>0.11837756877520098</v>
+        <v>6.4018236755962535E-2</v>
       </c>
       <c r="R6">
         <f t="shared" si="3"/>
-        <v>2.3299073923480261E-2</v>
+        <v>1.2664904468373249E-2</v>
       </c>
       <c r="S6">
         <f>B6*Parameters!$B$6</f>
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="T6">
         <f>SQRT((C6/B6)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S6</f>
-        <v>6.3708500822833178E-2</v>
+        <v>3.422927639369442E-2</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>-63.471059318796065</v>
+        <v>-34.232804920389867</v>
       </c>
       <c r="W6">
         <f t="shared" si="1"/>
-        <v>-0.18637921598532312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-0.18578586376512662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>1.5800000000000002E-2</v>
@@ -5852,11 +7079,11 @@
       </c>
       <c r="I7" s="1">
         <f>'Count-&gt;Actual Activity'!F7</f>
-        <v>1.1979333038641615</v>
+        <v>0.64783996790632115</v>
       </c>
       <c r="J7" s="1">
         <f>'Count-&gt;Actual Activity'!G7</f>
-        <v>0.23297871218387531</v>
+        <v>0.12664249638123623</v>
       </c>
       <c r="K7" s="1">
         <v>10</v>
@@ -5870,32 +7097,32 @@
       <c r="P7" s="1"/>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>0.11979333038641615</v>
+        <v>6.4783996790632112E-2</v>
       </c>
       <c r="R7">
         <f t="shared" si="3"/>
-        <v>2.3299103095968957E-2</v>
+        <v>1.2664912426135244E-2</v>
       </c>
       <c r="S7">
         <f>B7*Parameters!$B$6</f>
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="T7">
         <f>SQRT((C7/B7)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S7</f>
-        <v>6.3708500822833178E-2</v>
+        <v>3.422927639369442E-2</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>-65.615678661057103</v>
+        <v>-35.396629102766582</v>
       </c>
       <c r="W7">
         <f t="shared" si="1"/>
-        <v>-0.20056796954492009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-0.19996975057864316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>7.9200000000000007E-2</v>
@@ -5920,11 +7147,11 @@
       </c>
       <c r="I8" s="1">
         <f>'Count-&gt;Actual Activity'!F8</f>
-        <v>4.3312180862105629</v>
+        <v>2.3425774466968603</v>
       </c>
       <c r="J8" s="1">
         <f>'Count-&gt;Actual Activity'!G8</f>
-        <v>0.23297993889719926</v>
+        <v>0.12662574886890693</v>
       </c>
       <c r="K8" s="1">
         <v>10</v>
@@ -5938,32 +7165,32 @@
       <c r="P8" s="1"/>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>0.43312180862105631</v>
+        <v>0.23425774466968602</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
-        <v>2.3314092246747242E-2</v>
+        <v>1.2671239463046453E-2</v>
       </c>
       <c r="S8">
         <f>B8*Parameters!$B$6</f>
-        <v>50.016578689035846</v>
+        <v>27.062351729187554</v>
       </c>
       <c r="T8">
         <f>SQRT((C8/B8)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S8</f>
-        <v>7.59033800787903E-2</v>
+        <v>3.5637963826780028E-2</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>224.9797928500071</v>
+        <v>122.03279403419306</v>
       </c>
       <c r="W8">
         <f t="shared" si="1"/>
-        <v>0.13404351122480684</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.13437772513675506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <v>7.9200000000000007E-2</v>
@@ -5988,11 +7215,11 @@
       </c>
       <c r="I9" s="1">
         <f>'Count-&gt;Actual Activity'!F9</f>
-        <v>4.9554667883927408</v>
+        <v>2.6802223609527043</v>
       </c>
       <c r="J9" s="1">
         <f>'Count-&gt;Actual Activity'!G9</f>
-        <v>0.23298035518556603</v>
+        <v>0.12662243904258613</v>
       </c>
       <c r="K9" s="1">
         <v>10</v>
@@ -6006,32 +7233,32 @@
       <c r="P9" s="1"/>
       <c r="Q9">
         <f t="shared" si="2"/>
-        <v>0.49554667883927406</v>
+        <v>0.26802223609527043</v>
       </c>
       <c r="R9">
         <f t="shared" si="3"/>
-        <v>2.3319106438016865E-2</v>
+        <v>1.2673585300423101E-2</v>
       </c>
       <c r="S9">
         <f>B9*Parameters!$B$6</f>
-        <v>50.016578689035846</v>
+        <v>27.062351729187554</v>
       </c>
       <c r="T9">
         <f>SQRT((C9/B9)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S9</f>
-        <v>7.59033800787903E-2</v>
+        <v>3.5637963826780028E-2</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>15.244581026681129</v>
+        <v>8.585086457442598</v>
       </c>
       <c r="W9">
         <f t="shared" si="1"/>
-        <v>9.2351539672523384E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>9.6121771774902616E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B10">
         <v>7.9200000000000007E-2</v>
@@ -6056,11 +7283,11 @@
       </c>
       <c r="I10" s="1">
         <f>'Count-&gt;Actual Activity'!F10</f>
-        <v>4.8677479504195089</v>
+        <v>2.6327768165365772</v>
       </c>
       <c r="J10" s="1">
         <f>'Count-&gt;Actual Activity'!G10</f>
-        <v>0.23298029324030628</v>
+        <v>0.1266229035983662</v>
       </c>
       <c r="K10" s="1">
         <v>10</v>
@@ -6074,32 +7301,32 @@
       <c r="P10" s="1"/>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>0.48677479504195087</v>
+        <v>0.26327768165365772</v>
       </c>
       <c r="R10">
         <f t="shared" si="3"/>
-        <v>2.3318361202874945E-2</v>
+        <v>1.2673233908811084E-2</v>
       </c>
       <c r="S10">
         <f>B10*Parameters!$B$6</f>
-        <v>50.016578689035846</v>
+        <v>27.062351729187554</v>
       </c>
       <c r="T10">
         <f>SQRT((C10/B10)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S10</f>
-        <v>7.59033800787903E-2</v>
+        <v>3.5637963826780028E-2</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>43.618865955725155</v>
+        <v>23.927803381817029</v>
       </c>
       <c r="W10">
         <f t="shared" si="1"/>
-        <v>2.6773106436692496E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+        <v>2.7144114124771815E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>0.158</v>
@@ -6124,11 +7351,11 @@
       </c>
       <c r="I11" s="1">
         <f>'Count-&gt;Actual Activity'!F11</f>
-        <v>9.8542938728075473</v>
+        <v>5.3299099695762422</v>
       </c>
       <c r="J11" s="1">
         <f>'Count-&gt;Actual Activity'!G11</f>
-        <v>0.23298560468995966</v>
+        <v>0.12659677428470054</v>
       </c>
       <c r="K11" s="1">
         <v>10</v>
@@ -6142,32 +7369,32 @@
       <c r="P11" s="1"/>
       <c r="Q11">
         <f t="shared" si="2"/>
-        <v>0.98542938728075469</v>
+        <v>0.5329909969576242</v>
       </c>
       <c r="R11">
         <f t="shared" si="3"/>
-        <v>2.3381770767773934E-2</v>
+        <v>1.2704477565184081E-2</v>
       </c>
       <c r="S11">
         <f>B11*Parameters!$B$6</f>
-        <v>99.780548394793726</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="T11">
         <f>SQRT((C11/B11)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S11</f>
-        <v>0.63708500822833181</v>
+        <v>0.34229276393694419</v>
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>40.98045254033962</v>
+        <v>22.812093328671562</v>
       </c>
       <c r="W11">
         <f t="shared" si="1"/>
-        <v>1.2403315943118545E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.2760704241720693E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B12">
         <v>0.158</v>
@@ -6192,11 +7419,11 @@
       </c>
       <c r="I12" s="1">
         <f>'Count-&gt;Actual Activity'!F12</f>
-        <v>10.18495448416917</v>
+        <v>5.5087583570549841</v>
       </c>
       <c r="J12" s="1">
         <f>'Count-&gt;Actual Activity'!G12</f>
-        <v>0.23298608572874935</v>
+        <v>0.12659506173868512</v>
       </c>
       <c r="K12" s="1">
         <v>10</v>
@@ -6210,32 +7437,32 @@
       <c r="P12" s="1"/>
       <c r="Q12">
         <f t="shared" si="2"/>
-        <v>1.0184954484169171</v>
+        <v>0.55087583570549836</v>
       </c>
       <c r="R12">
         <f t="shared" si="3"/>
-        <v>2.3387485827805976E-2</v>
+        <v>1.27073582349626E-2</v>
       </c>
       <c r="S12">
         <f>B12*Parameters!$B$6</f>
-        <v>99.780548394793726</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="T12">
         <f>SQRT((C12/B12)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S12</f>
-        <v>0.63708500822833181</v>
+        <v>0.34229276393694419</v>
       </c>
       <c r="U12">
         <f t="shared" si="0"/>
-        <v>-69.429410969730995</v>
+        <v>-36.897941485286438</v>
       </c>
       <c r="W12">
         <f t="shared" si="1"/>
-        <v>-2.0735468788082332E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-2.0366713877886834E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B13">
         <v>0.158</v>
@@ -6260,11 +7487,11 @@
       </c>
       <c r="I13" s="1">
         <f>'Count-&gt;Actual Activity'!F13</f>
-        <v>9.8442229912432335</v>
+        <v>5.3244628105667378</v>
       </c>
       <c r="J13" s="1">
         <f>'Count-&gt;Actual Activity'!G13</f>
-        <v>0.23298559029047033</v>
+        <v>0.12659682648270595</v>
       </c>
       <c r="K13" s="1">
         <v>10</v>
@@ -6278,32 +7505,32 @@
       <c r="P13" s="1"/>
       <c r="Q13">
         <f t="shared" si="2"/>
-        <v>0.98442229912432333</v>
+        <v>0.5324462810566738</v>
       </c>
       <c r="R13">
         <f t="shared" si="3"/>
-        <v>2.3381599643352929E-2</v>
+        <v>1.270439140312388E-2</v>
       </c>
       <c r="S13">
         <f>B13*Parameters!$B$6</f>
-        <v>99.780548394793726</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="T13">
         <f>SQRT((C13/B13)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S13</f>
-        <v>0.63708500822833181</v>
+        <v>0.34229276393694419</v>
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>45.061228362336273</v>
+        <v>25.030195576462017</v>
       </c>
       <c r="W13">
         <f t="shared" si="1"/>
-        <v>1.3412619031378437E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.3769661138764438E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B14">
         <v>0.39600000000000002</v>
@@ -6328,11 +7555,11 @@
       </c>
       <c r="I14" s="1">
         <f>'Count-&gt;Actual Activity'!F14</f>
-        <v>21.646639387995013</v>
+        <v>11.708177920205918</v>
       </c>
       <c r="J14" s="1">
         <f>'Count-&gt;Actual Activity'!G14</f>
-        <v>0.23301266279334218</v>
+        <v>0.1265372462539151</v>
       </c>
       <c r="K14" s="1">
         <v>10</v>
@@ -6346,32 +7573,32 @@
       <c r="P14" s="1"/>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>2.1646639387995013</v>
+        <v>1.1708177920205918</v>
       </c>
       <c r="R14">
         <f t="shared" si="3"/>
-        <v>2.3700044094731001E-2</v>
+        <v>1.2868566513162507E-2</v>
       </c>
       <c r="S14">
         <f>B14*Parameters!$B$6</f>
-        <v>250.08289344517922</v>
+        <v>135.31175864593777</v>
       </c>
       <c r="T14">
         <f>SQRT((C14/B14)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S14</f>
-        <v>0.66569402813006118</v>
+        <v>0.34542569907599352</v>
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>1091.444791078867</v>
+        <v>591.88244947657756</v>
       </c>
       <c r="W14">
         <f t="shared" si="1"/>
-        <v>0.1344214276399445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.1347257594336638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B15">
         <v>0.39600000000000002</v>
@@ -6396,11 +7623,11 @@
       </c>
       <c r="I15" s="1">
         <f>'Count-&gt;Actual Activity'!F15</f>
-        <v>21.847181290449608</v>
+        <v>11.816647434395191</v>
       </c>
       <c r="J15" s="1">
         <f>'Count-&gt;Actual Activity'!G15</f>
-        <v>0.23301329913948549</v>
+        <v>0.12653626144503002</v>
       </c>
       <c r="K15" s="1">
         <v>10</v>
@@ -6414,32 +7641,32 @@
       <c r="P15" s="1"/>
       <c r="Q15">
         <f t="shared" si="2"/>
-        <v>2.1847181290449607</v>
+        <v>1.1816647434395191</v>
       </c>
       <c r="R15">
         <f t="shared" si="3"/>
-        <v>2.3707466101888328E-2</v>
+        <v>1.2872434923836353E-2</v>
       </c>
       <c r="S15">
         <f>B15*Parameters!$B$6</f>
-        <v>250.08289344517922</v>
+        <v>135.31175864593777</v>
       </c>
       <c r="T15">
         <f>SQRT((C15/B15)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S15</f>
-        <v>0.66569402813006118</v>
+        <v>0.34542569907599352</v>
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>1026.3337837884144</v>
+        <v>556.66507473980084</v>
       </c>
       <c r="W15">
         <f t="shared" si="1"/>
-        <v>0.12640241043761211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.12670949275627194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B16">
         <v>0.39600000000000002</v>
@@ -6464,11 +7691,11 @@
       </c>
       <c r="I16" s="1">
         <f>'Count-&gt;Actual Activity'!F16</f>
-        <v>24.628933924279423</v>
+        <v>13.321247486020658</v>
       </c>
       <c r="J16" s="1">
         <f>'Count-&gt;Actual Activity'!G16</f>
-        <v>0.23302273365697004</v>
+        <v>0.1265226960052131</v>
       </c>
       <c r="K16" s="1">
         <v>10</v>
@@ -6482,32 +7709,32 @@
       <c r="P16" s="1"/>
       <c r="Q16">
         <f t="shared" si="2"/>
-        <v>2.4628933924279424</v>
+        <v>1.3321247486020658</v>
       </c>
       <c r="R16">
         <f t="shared" si="3"/>
-        <v>2.3817206373954375E-2</v>
+        <v>1.2929739031690783E-2</v>
       </c>
       <c r="S16">
         <f>B16*Parameters!$B$6</f>
-        <v>250.08289344517922</v>
+        <v>135.31175864593777</v>
       </c>
       <c r="T16">
         <f>SQRT((C16/B16)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S16</f>
-        <v>0.66569402813006118</v>
+        <v>0.34542569907599352</v>
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>124.78796718371699</v>
+        <v>69.055387688525926</v>
       </c>
       <c r="W16">
         <f t="shared" si="1"/>
-        <v>1.5169187104821237E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1.5514422447381378E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B17">
         <v>0.79200000000000004</v>
@@ -6532,11 +7759,11 @@
       </c>
       <c r="I17" s="1">
         <f>'Count-&gt;Actual Activity'!F17</f>
-        <v>45.287960882818467</v>
+        <v>24.495344222852008</v>
       </c>
       <c r="J17" s="1">
         <f>'Count-&gt;Actual Activity'!G17</f>
-        <v>0.2331282555649446</v>
+        <v>0.12642750218520346</v>
       </c>
       <c r="K17" s="1">
         <v>10</v>
@@ -6546,32 +7773,32 @@
       </c>
       <c r="Q17">
         <f t="shared" si="2"/>
-        <v>4.5287960882818465</v>
+        <v>2.4495344222852009</v>
       </c>
       <c r="R17">
         <f t="shared" si="3"/>
-        <v>2.5010554001550805E-2</v>
+        <v>1.3558761323651089E-2</v>
       </c>
       <c r="S17">
         <f>B17*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="T17">
         <f>SQRT((C17/B17)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S17</f>
-        <v>0.75903380078790295</v>
+        <v>0.35637963826780028</v>
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>1550.3664938417642</v>
+        <v>841.64180535591652</v>
       </c>
       <c r="W17">
         <f t="shared" si="1"/>
-        <v>9.4541008804625473E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+        <v>9.4855300530550385E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B18">
         <v>0.79200000000000004</v>
@@ -6596,11 +7823,11 @@
       </c>
       <c r="I18" s="1">
         <f>'Count-&gt;Actual Activity'!F18</f>
-        <v>46.601700085142987</v>
+        <v>25.205922168425296</v>
       </c>
       <c r="J18" s="1">
         <f>'Count-&gt;Actual Activity'!G18</f>
-        <v>0.23313707818682367</v>
+        <v>0.12642177988769618</v>
       </c>
       <c r="K18" s="1">
         <v>10</v>
@@ -6610,32 +7837,32 @@
       </c>
       <c r="Q18">
         <f t="shared" si="2"/>
-        <v>4.6601700085142985</v>
+        <v>2.5205922168425294</v>
       </c>
       <c r="R18">
         <f t="shared" si="3"/>
-        <v>2.5107722124635599E-2</v>
+        <v>1.3610224274205019E-2</v>
       </c>
       <c r="S18">
         <f>B18*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="T18">
         <f>SQRT((C18/B18)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S18</f>
-        <v>0.75903380078790295</v>
+        <v>0.35637963826780028</v>
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
-        <v>1161.5233346574362</v>
+        <v>631.43862610961219</v>
       </c>
       <c r="W18">
         <f t="shared" si="1"/>
-        <v>6.8274933899895848E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+        <v>6.8598234896195112E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B19">
         <v>0.79200000000000004</v>
@@ -6660,11 +7887,11 @@
       </c>
       <c r="I19" s="1">
         <f>'Count-&gt;Actual Activity'!F19</f>
-        <v>46.936155521441968</v>
+        <v>25.38682310857433</v>
       </c>
       <c r="J19" s="1">
         <f>'Count-&gt;Actual Activity'!G19</f>
-        <v>0.23313936458963935</v>
+        <v>0.12642032941922363</v>
       </c>
       <c r="K19" s="1">
         <v>10</v>
@@ -6674,27 +7901,27 @@
       </c>
       <c r="Q19">
         <f t="shared" si="2"/>
-        <v>4.6936155521441965</v>
+        <v>2.5386823108574328</v>
       </c>
       <c r="R19">
         <f t="shared" si="3"/>
-        <v>2.5132841881051318E-2</v>
+        <v>1.3623532156033982E-2</v>
       </c>
       <c r="S19">
         <f>B19*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="T19">
         <f>SQRT((C19/B19)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S19</f>
-        <v>0.75903380078790295</v>
+        <v>0.35637963826780028</v>
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
-        <v>1020.0076713887022</v>
+        <v>554.81080152755851</v>
       </c>
       <c r="W19">
         <f t="shared" si="1"/>
-        <v>6.1588042371821437E-2</v>
+        <v>6.1913636973615981E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6707,12 +7934,12 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6720,49 +7947,49 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <f>AVERAGE('Bottle Results'!Q2:Q4)</f>
-        <v>2.7681252774266623E-2</v>
+        <v>1.4962227937029554E-2</v>
       </c>
       <c r="C2">
         <f>_xlfn.STDEV.S('Bottle Results'!Q2:Q4)</f>
-        <v>1.7218337310839331E-3</v>
+        <v>9.3130894860072937E-4</v>
       </c>
       <c r="D2">
         <f>AVERAGE('Bottle Results'!U2:U4)</f>
-        <v>-92.149397795559423</v>
+        <v>-49.808466941771201</v>
       </c>
       <c r="E2">
         <f>_xlfn.STDEV.S('Bottle Results'!U2:U4)</f>
-        <v>7.0894508711937014</v>
+        <v>3.8339789585458313</v>
       </c>
       <c r="F2">
         <f>AVERAGE('Bottle Results'!S2:S4)</f>
@@ -6781,37 +8008,37 @@
         <v>5.7735026918961348E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
       <c r="B3">
         <f>AVERAGE('Bottle Results'!Q5:Q7)</f>
-        <v>0.11618094895573838</v>
+        <v>6.2830124537222698E-2</v>
       </c>
       <c r="C3">
         <f>_xlfn.STDEV.S('Bottle Results'!Q5:Q7)</f>
-        <v>5.0803018491076901E-3</v>
+        <v>2.7478440503592282E-3</v>
       </c>
       <c r="D3">
         <f>AVERAGE('Bottle Results'!U5:U7)</f>
-        <v>-54.996595497018028</v>
+        <v>-29.65061942103533</v>
       </c>
       <c r="E3">
         <f>_xlfn.STDEV.S('Bottle Results'!U5:U7)</f>
-        <v>16.570229340763685</v>
+        <v>8.9633885030062039</v>
       </c>
       <c r="F3">
         <f>AVERAGE('Bottle Results'!S5:S7)</f>
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="G3">
         <f>AVERAGE('Bottle Results'!W5:W7)</f>
-        <v>-0.16436470659646496</v>
+        <v>-0.16377890535858927</v>
       </c>
       <c r="H3">
         <f>_xlfn.STDEV.S('Bottle Results'!W5:W7)</f>
-        <v>5.0914751731037357E-2</v>
+        <v>5.0897287958241104E-2</v>
       </c>
       <c r="I3">
         <f>AVERAGE('Bottle Results'!D5:D7)</f>
@@ -6822,37 +8049,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>50</v>
       </c>
       <c r="B4">
         <f>AVERAGE('Bottle Results'!Q8:Q10)</f>
-        <v>0.47181442750076047</v>
+        <v>0.25518588747287141</v>
       </c>
       <c r="C4">
         <f>_xlfn.STDEV.S('Bottle Results'!Q8:Q10)</f>
-        <v>3.3794608344615576E-2</v>
+        <v>1.827889685143079E-2</v>
       </c>
       <c r="D4">
         <f>AVERAGE('Bottle Results'!U8:U10)</f>
-        <v>94.614413277471115</v>
+        <v>51.515227957817558</v>
       </c>
       <c r="E4">
         <f>_xlfn.STDEV.S('Bottle Results'!U8:U10)</f>
-        <v>113.78762742331516</v>
+        <v>61.549939761606275</v>
       </c>
       <c r="F4">
         <f>AVERAGE('Bottle Results'!S8:S10)</f>
-        <v>50.016578689035846</v>
+        <v>27.062351729187554</v>
       </c>
       <c r="G4">
         <f>AVERAGE('Bottle Results'!W8:W10)</f>
-        <v>5.6683923876250562E-2</v>
+        <v>5.704467214633905E-2</v>
       </c>
       <c r="H4">
         <f>_xlfn.STDEV.S('Bottle Results'!W8:W10)</f>
-        <v>6.7566813305492426E-2</v>
+        <v>6.7543637871340115E-2</v>
       </c>
       <c r="I4">
         <f>AVERAGE('Bottle Results'!D8:D10)</f>
@@ -6863,37 +8090,37 @@
         <v>9.9999999999997868E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>100</v>
       </c>
       <c r="B5">
         <f>AVERAGE('Bottle Results'!Q11:Q13)</f>
-        <v>0.9961157116073317</v>
+        <v>0.53877103790659875</v>
       </c>
       <c r="C5">
         <f>_xlfn.STDEV.S('Bottle Results'!Q11:Q13)</f>
-        <v>1.9387960733105461E-2</v>
+        <v>1.0486599838239756E-2</v>
       </c>
       <c r="D5">
         <f>AVERAGE('Bottle Results'!U11:U13)</f>
-        <v>5.5374233109816329</v>
+        <v>3.6481158066157136</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S('Bottle Results'!U11:U13)</f>
-        <v>64.955237389922772</v>
+        <v>35.131425616306437</v>
       </c>
       <c r="F5">
         <f>AVERAGE('Bottle Results'!S11:S13)</f>
-        <v>99.780548394793712</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="G5">
         <f>AVERAGE('Bottle Results'!W11:W13)</f>
-        <v>1.6934887288048834E-3</v>
+        <v>2.0545505008660991E-3</v>
       </c>
       <c r="H5">
         <f>_xlfn.STDEV.S('Bottle Results'!W11:W13)</f>
-        <v>1.9430601499998434E-2</v>
+        <v>1.9423936798740733E-2</v>
       </c>
       <c r="I5">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
@@ -6904,37 +8131,37 @@
         <v>7.2648315725676342E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>250</v>
       </c>
       <c r="B6">
         <f>AVERAGE('Bottle Results'!Q14:Q16)</f>
-        <v>2.2707584867574684</v>
+        <v>1.2282024280207258</v>
       </c>
       <c r="C6">
         <f>_xlfn.STDEV.S('Bottle Results'!Q14:Q16)</f>
-        <v>0.16669555818722886</v>
+        <v>9.0162634306176284E-2</v>
       </c>
       <c r="D6">
         <f>AVERAGE('Bottle Results'!U14:U16)</f>
-        <v>747.52218068366608</v>
+        <v>405.86763730163483</v>
       </c>
       <c r="E6">
         <f>_xlfn.STDEV.S('Bottle Results'!U14:U16)</f>
-        <v>540.28537488548113</v>
+        <v>292.21898379112878</v>
       </c>
       <c r="F6">
         <f>AVERAGE('Bottle Results'!S14:S16)</f>
-        <v>250.08289344517922</v>
+        <v>135.31175864593777</v>
       </c>
       <c r="G6">
         <f>AVERAGE('Bottle Results'!W14:W16)</f>
-        <v>9.1997675060792608E-2</v>
+        <v>9.2316558212439045E-2</v>
       </c>
       <c r="H6">
         <f>_xlfn.STDEV.S('Bottle Results'!W14:W16)</f>
-        <v>6.6656121852560965E-2</v>
+        <v>6.6633258785808516E-2</v>
       </c>
       <c r="I6">
         <f>AVERAGE('Bottle Results'!D14:D16)</f>
@@ -6945,37 +8172,37 @@
         <v>5.7735026918961348E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>500</v>
       </c>
       <c r="B7">
         <f>AVERAGE('Bottle Results'!Q17:Q19)</f>
-        <v>4.6275272163134469</v>
+        <v>2.5029363166617213</v>
       </c>
       <c r="C7">
         <f>_xlfn.STDEV.S('Bottle Results'!Q17:Q19)</f>
-        <v>8.7123635306207745E-2</v>
+        <v>4.712360998074925E-2</v>
       </c>
       <c r="D7">
         <f>AVERAGE('Bottle Results'!U17:U19)</f>
-        <v>1243.9658332959673</v>
+        <v>675.96374433102903</v>
       </c>
       <c r="E7">
         <f>_xlfn.STDEV.S('Bottle Results'!U17:U19)</f>
-        <v>274.62282192995775</v>
+        <v>148.50882399295071</v>
       </c>
       <c r="F7">
         <f>AVERAGE('Bottle Results'!S17:S19)</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="G7">
         <f>AVERAGE('Bottle Results'!W17:W19)</f>
-        <v>7.4801328358780922E-2</v>
+        <v>7.5122390800120495E-2</v>
       </c>
       <c r="H7">
         <f>_xlfn.STDEV.S('Bottle Results'!W17:W19)</f>
-        <v>1.7418951393671771E-2</v>
+        <v>1.7412976688912403E-2</v>
       </c>
       <c r="I7">
         <f>AVERAGE('Bottle Results'!D17:D19)</f>

--- a/Sorption Experiments/RaGoe_pH5/RaGoe_pH5_NoScript.xlsx
+++ b/Sorption Experiments/RaGoe_pH5/RaGoe_pH5_NoScript.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\machen\Documents\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\RaGoe_pH5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\RaGoe_pH5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12290" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="Bottle Results" sheetId="5" r:id="rId5"/>
     <sheet name="Averaged Results" sheetId="8" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -688,7 +685,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -709,58 +705,52 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:numRef>
-              <c:f>'[1]Calibration Data'!$F$3:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3.4640522875816994E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.9815435847137763E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2604166666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0219907407407408E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.4872685185185185E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.39049768518518518</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>3.4640522875816994E-3</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7.9815435847137763E-3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1.2604166666666666E-2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5.0219907407407408E-2</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>9.4872685185185185E-2</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>0.39049768518518518</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>'[1]Calibration Data'!$I$3:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.31819999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.591</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1819999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.91</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.82</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>0.00E+00</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>0.31819999999999998</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1.591</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3.1819999999999999</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>15.91</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>31.82</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>159.1</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
@@ -776,58 +766,52 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:numRef>
-              <c:f>'[1]Calibration Data'!$F$3:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3.4640522875816994E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.9815435847137763E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2604166666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0219907407407408E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.4872685185185185E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.39049768518518518</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>3.4640522875816994E-3</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7.9815435847137763E-3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1.2604166666666666E-2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5.0219907407407408E-2</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>9.4872685185185185E-2</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>0.39049768518518518</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>'[1]Calibration Data'!$B$70:$B$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>-1.7375179093564292</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12652001269851265</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0339381254012432</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.555200391349953</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.9801326442823</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>157.96292673562442</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>-1.7375179093564292</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.12652001269851265</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2.0339381254012432</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>17.555200391349953</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>35.9801326442823</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>157.96292673562442</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
@@ -839,11 +823,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489828240"/>
-        <c:axId val="489828632"/>
+        <c:axId val="513828288"/>
+        <c:axId val="513828680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489828240"/>
+        <c:axId val="513828288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,19 +849,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489828632"/>
+        <c:crossAx val="513828680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489828632"/>
+        <c:axId val="513828680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,21 +882,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489828240"/>
+        <c:crossAx val="513828288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -963,108 +944,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sample Parameters"/>
-      <sheetName val="Scintillation Counter Results"/>
-      <sheetName val="Gamma Counter Results"/>
-      <sheetName val="Quality Control Notes"/>
-      <sheetName val="Calibration Data"/>
-      <sheetName val="Stock Log"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="3">
-          <cell r="F3">
-            <v>3.4640522875816994E-3</v>
-          </cell>
-          <cell r="I3">
-            <v>0.31819999999999998</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>7.9815435847137763E-3</v>
-          </cell>
-          <cell r="I4">
-            <v>1.591</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>1.2604166666666666E-2</v>
-          </cell>
-          <cell r="I5">
-            <v>3.1819999999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>5.0219907407407408E-2</v>
-          </cell>
-          <cell r="I6">
-            <v>15.91</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>9.4872685185185185E-2</v>
-          </cell>
-          <cell r="I7">
-            <v>31.82</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>0.39049768518518518</v>
-          </cell>
-          <cell r="I8">
-            <v>159.1</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>-1.7375179093564292</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>0.12652001269851265</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>2.0339381254012432</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>17.555200391349953</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>35.9801326442823</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>157.96292673562442</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1336,13 +1215,13 @@
       <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1367,7 +1246,7 @@
         <v>42419</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1384,7 +1263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1392,7 +1271,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1400,7 +1279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1417,7 +1296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1438,26 +1317,26 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.26953125" style="2" customWidth="1"/>
-    <col min="9" max="10" width="18.7265625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="18.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>43</v>
       </c>
@@ -1494,7 +1373,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
@@ -1530,7 +1409,7 @@
         <v>0.13209164838024126</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -1575,7 +1454,7 @@
         <v>0.41681673309525025</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
@@ -1620,7 +1499,7 @@
         <v>1.6756463301427775</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1665,7 +1544,7 @@
         <v>3.2236087246307998</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
@@ -1710,7 +1589,7 @@
         <v>15.781905933869924</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
@@ -1754,7 +1633,7 @@
         <v>31.685788675267496</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -1799,7 +1678,7 @@
         <v>159.1374336029937</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>144</v>
       </c>
@@ -1837,7 +1716,7 @@
         <v>675.45815221486782</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>145</v>
       </c>
@@ -1854,7 +1733,7 @@
         <v>341.27116260310561</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="F11"/>
       <c r="G11"/>
@@ -1862,7 +1741,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>52</v>
       </c>
@@ -1876,7 +1755,7 @@
       <c r="I12" s="22"/>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1894,7 +1773,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1905,7 +1784,7 @@
       <c r="H14"/>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>54</v>
       </c>
@@ -1935,7 +1814,7 @@
       <c r="AD15" s="25"/>
       <c r="AE15" s="25"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>55</v>
       </c>
@@ -1969,7 +1848,7 @@
       <c r="AD16" s="25"/>
       <c r="AE16" s="25"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>56</v>
       </c>
@@ -2003,7 +1882,7 @@
       <c r="AD17" s="25"/>
       <c r="AE17" s="25"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>57</v>
       </c>
@@ -2037,7 +1916,7 @@
       <c r="AD18" s="25"/>
       <c r="AE18" s="25"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>58</v>
       </c>
@@ -2071,7 +1950,7 @@
       <c r="AD19" s="25"/>
       <c r="AE19" s="25"/>
     </row>
-    <row r="20" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>59</v>
       </c>
@@ -2105,7 +1984,7 @@
       <c r="AD20" s="25"/>
       <c r="AE20" s="25"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -2129,7 +2008,7 @@
       <c r="AD21" s="25"/>
       <c r="AE21" s="25"/>
     </row>
-    <row r="22" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -2158,7 +2037,7 @@
       <c r="AD22" s="25"/>
       <c r="AE22" s="25"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>61</v>
@@ -2208,7 +2087,7 @@
       <c r="AD23" s="25"/>
       <c r="AE23" s="25"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>66</v>
       </c>
@@ -2262,7 +2141,7 @@
       <c r="AD24" s="25"/>
       <c r="AE24" s="25"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>67</v>
       </c>
@@ -2308,7 +2187,7 @@
       <c r="AD25" s="25"/>
       <c r="AE25" s="25"/>
     </row>
-    <row r="26" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>68</v>
       </c>
@@ -2350,7 +2229,7 @@
       <c r="AD26" s="25"/>
       <c r="AE26" s="25"/>
     </row>
-    <row r="27" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -2374,7 +2253,7 @@
       <c r="AD27" s="25"/>
       <c r="AE27" s="25"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>69</v>
@@ -2439,7 +2318,7 @@
       <c r="AD28" s="25"/>
       <c r="AE28" s="25"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>76</v>
       </c>
@@ -2508,7 +2387,7 @@
       <c r="AD29" s="13"/>
       <c r="AE29" s="25"/>
     </row>
-    <row r="30" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>77</v>
       </c>
@@ -2577,7 +2456,7 @@
       <c r="AD30" s="7"/>
       <c r="AE30" s="25"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -2601,7 +2480,7 @@
       <c r="AD31" s="7"/>
       <c r="AE31" s="25"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -2625,7 +2504,7 @@
       <c r="AD32" s="25"/>
       <c r="AE32" s="25"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -2649,7 +2528,7 @@
       <c r="AD33" s="25"/>
       <c r="AE33" s="25"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -2678,7 +2557,7 @@
       <c r="AD34" s="25"/>
       <c r="AE34" s="25"/>
     </row>
-    <row r="35" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -2702,7 +2581,7 @@
       <c r="AD35" s="25"/>
       <c r="AE35" s="25"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>79</v>
       </c>
@@ -2741,7 +2620,7 @@
       <c r="AD36" s="25"/>
       <c r="AE36" s="25"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>1</v>
       </c>
@@ -2780,7 +2659,7 @@
       <c r="AD37" s="25"/>
       <c r="AE37" s="25"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>2</v>
       </c>
@@ -2819,7 +2698,7 @@
       <c r="AD38" s="25"/>
       <c r="AE38" s="25"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>3</v>
       </c>
@@ -2858,7 +2737,7 @@
       <c r="AD39" s="25"/>
       <c r="AE39" s="25"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>4</v>
       </c>
@@ -2897,7 +2776,7 @@
       <c r="AD40" s="25"/>
       <c r="AE40" s="25"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>5</v>
       </c>
@@ -2936,7 +2815,7 @@
       <c r="AD41" s="25"/>
       <c r="AE41" s="25"/>
     </row>
-    <row r="42" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>6</v>
       </c>
@@ -2975,7 +2854,7 @@
       <c r="AD42" s="25"/>
       <c r="AE42" s="25"/>
     </row>
-    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3002,7 +2881,7 @@
       <c r="AD43" s="25"/>
       <c r="AE43" s="25"/>
     </row>
-    <row r="44" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -3021,7 +2900,7 @@
       <c r="W44" s="26"/>
       <c r="X44" s="26"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>82</v>
       </c>
@@ -3048,7 +2927,7 @@
       <c r="AD45" s="25"/>
       <c r="AE45" s="25"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -3083,7 +2962,7 @@
       <c r="AD46" s="25"/>
       <c r="AE46" s="25"/>
     </row>
-    <row r="47" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -3116,7 +2995,7 @@
       <c r="AD47" s="25"/>
       <c r="AE47" s="25"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>54</v>
       </c>
@@ -3151,7 +3030,7 @@
       <c r="AD48" s="25"/>
       <c r="AE48" s="25"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>55</v>
       </c>
@@ -3188,7 +3067,7 @@
       <c r="AD49" s="25"/>
       <c r="AE49" s="25"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>56</v>
       </c>
@@ -3225,7 +3104,7 @@
       <c r="AD50" s="25"/>
       <c r="AE50" s="25"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>57</v>
       </c>
@@ -3262,7 +3141,7 @@
       <c r="AD51" s="25"/>
       <c r="AE51" s="25"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>58</v>
       </c>
@@ -3299,7 +3178,7 @@
       <c r="AD52" s="25"/>
       <c r="AE52" s="25"/>
     </row>
-    <row r="53" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>59</v>
       </c>
@@ -3336,7 +3215,7 @@
       <c r="AD53" s="25"/>
       <c r="AE53" s="25"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -3369,7 +3248,7 @@
       <c r="AD54" s="25"/>
       <c r="AE54" s="25"/>
     </row>
-    <row r="55" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -3404,7 +3283,7 @@
       <c r="AD55" s="25"/>
       <c r="AE55" s="25"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>61</v>
@@ -3447,7 +3326,7 @@
       <c r="AD56" s="25"/>
       <c r="AE56" s="25"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>66</v>
       </c>
@@ -3492,7 +3371,7 @@
       <c r="AD57" s="25"/>
       <c r="AE57" s="25"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>67</v>
       </c>
@@ -3533,7 +3412,7 @@
       <c r="AD58" s="25"/>
       <c r="AE58" s="25"/>
     </row>
-    <row r="59" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>68</v>
       </c>
@@ -3572,7 +3451,7 @@
       <c r="AD59" s="25"/>
       <c r="AE59" s="25"/>
     </row>
-    <row r="60" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -3605,7 +3484,7 @@
       <c r="AD60" s="25"/>
       <c r="AE60" s="25"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
         <v>69</v>
@@ -3654,7 +3533,7 @@
       <c r="AD61" s="25"/>
       <c r="AE61" s="25"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>76</v>
       </c>
@@ -3705,7 +3584,7 @@
       <c r="AD62" s="25"/>
       <c r="AE62" s="25"/>
     </row>
-    <row r="63" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>77</v>
       </c>
@@ -3756,7 +3635,7 @@
       <c r="AD63" s="25"/>
       <c r="AE63" s="25"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -3789,7 +3668,7 @@
       <c r="AD64" s="25"/>
       <c r="AE64" s="25"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -3822,7 +3701,7 @@
       <c r="AD65" s="25"/>
       <c r="AE65" s="25"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -3855,7 +3734,7 @@
       <c r="AD66" s="25"/>
       <c r="AE66" s="25"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -3890,7 +3769,7 @@
       <c r="AD67" s="25"/>
       <c r="AE67" s="25"/>
     </row>
-    <row r="68" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -3923,7 +3802,7 @@
       <c r="AD68" s="25"/>
       <c r="AE68" s="25"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>79</v>
       </c>
@@ -3962,7 +3841,7 @@
       <c r="AD69" s="25"/>
       <c r="AE69" s="25"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>1</v>
       </c>
@@ -4001,7 +3880,7 @@
       <c r="AD70" s="25"/>
       <c r="AE70" s="25"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>2</v>
       </c>
@@ -4040,7 +3919,7 @@
       <c r="AD71" s="25"/>
       <c r="AE71" s="25"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>3</v>
       </c>
@@ -4057,7 +3936,7 @@
       <c r="H72"/>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>4</v>
       </c>
@@ -4074,7 +3953,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>5</v>
       </c>
@@ -4091,7 +3970,7 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>6</v>
       </c>
@@ -4108,7 +3987,7 @@
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76"/>
@@ -4130,13 +4009,13 @@
       <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4156,7 +4035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -4176,7 +4055,7 @@
         <v>202.21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -4196,7 +4075,7 @@
         <v>212.84</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -4216,7 +4095,7 @@
         <v>223.47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -4236,7 +4115,7 @@
         <v>234.11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -4256,7 +4135,7 @@
         <v>244.75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -4276,7 +4155,7 @@
         <v>255.38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -4296,7 +4175,7 @@
         <v>266.13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -4316,7 +4195,7 @@
         <v>276.76</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -4336,7 +4215,7 @@
         <v>287.39999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -4356,7 +4235,7 @@
         <v>298.04000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -4376,7 +4255,7 @@
         <v>308.69</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -4396,7 +4275,7 @@
         <v>319.32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -4416,7 +4295,7 @@
         <v>329.98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -4436,7 +4315,7 @@
         <v>340.63</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -4456,7 +4335,7 @@
         <v>351.29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -4476,7 +4355,7 @@
         <v>361.98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -4496,7 +4375,7 @@
         <v>372.66</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -4516,7 +4395,7 @@
         <v>383.35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -4536,7 +4415,7 @@
         <v>202.18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -4556,7 +4435,7 @@
         <v>212.81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -4576,7 +4455,7 @@
         <v>223.44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -4596,7 +4475,7 @@
         <v>234.08</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -4616,7 +4495,7 @@
         <v>244.71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -4636,7 +4515,7 @@
         <v>255.36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -4656,7 +4535,7 @@
         <v>266.10000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -4676,7 +4555,7 @@
         <v>276.73</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -4696,7 +4575,7 @@
         <v>287.37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -4716,7 +4595,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -4736,7 +4615,7 @@
         <v>308.63</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -4756,7 +4635,7 @@
         <v>319.29000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -4776,7 +4655,7 @@
         <v>329.93</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -4796,7 +4675,7 @@
         <v>340.6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -4816,7 +4695,7 @@
         <v>351.25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -4836,7 +4715,7 @@
         <v>361.94</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -4856,7 +4735,7 @@
         <v>372.63</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -4876,7 +4755,7 @@
         <v>383.31</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -4896,7 +4775,7 @@
         <v>202.17</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -4916,7 +4795,7 @@
         <v>212.81</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -4936,7 +4815,7 @@
         <v>223.44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -4956,7 +4835,7 @@
         <v>234.07</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -4976,7 +4855,7 @@
         <v>244.71</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -4996,7 +4875,7 @@
         <v>255.34</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -5016,7 +4895,7 @@
         <v>266.08</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -5036,7 +4915,7 @@
         <v>276.70999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -5056,7 +4935,7 @@
         <v>287.33999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -5076,7 +4955,7 @@
         <v>297.99</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -5096,7 +4975,7 @@
         <v>308.62</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -5116,7 +4995,7 @@
         <v>319.27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -5136,7 +5015,7 @@
         <v>329.91</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -5156,7 +5035,7 @@
         <v>340.56</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -5176,7 +5055,7 @@
         <v>351.22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -5196,7 +5075,7 @@
         <v>361.9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -5216,7 +5095,7 @@
         <v>372.58</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -5236,7 +5115,7 @@
         <v>383.26</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -5256,7 +5135,7 @@
         <v>202.15</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -5276,7 +5155,7 @@
         <v>212.79</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -5296,7 +5175,7 @@
         <v>223.41</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -5316,7 +5195,7 @@
         <v>234.04</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -5336,7 +5215,7 @@
         <v>244.67</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -5356,7 +5235,7 @@
         <v>255.31</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -5376,7 +5255,7 @@
         <v>266.04000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -5396,7 +5275,7 @@
         <v>276.68</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -5416,7 +5295,7 @@
         <v>287.31</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -5436,7 +5315,7 @@
         <v>297.95</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -5456,7 +5335,7 @@
         <v>308.58</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -5476,7 +5355,7 @@
         <v>319.23</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -5496,7 +5375,7 @@
         <v>329.88</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -5516,7 +5395,7 @@
         <v>340.53</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -5536,7 +5415,7 @@
         <v>351.19</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -5556,7 +5435,7 @@
         <v>361.87</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -5576,7 +5455,7 @@
         <v>372.54</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -5596,7 +5475,7 @@
         <v>383.22</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="18">
         <v>42472.4375</v>
       </c>
@@ -5616,7 +5495,7 @@
         <v>202.13</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="18">
         <v>42472.4375</v>
       </c>
@@ -5636,7 +5515,7 @@
         <v>212.76</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="18">
         <v>42472.4375</v>
       </c>
@@ -5656,7 +5535,7 @@
         <v>223.39</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>42472.4375</v>
       </c>
@@ -5676,7 +5555,7 @@
         <v>234.02</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="18">
         <v>42472.4375</v>
       </c>
@@ -5696,7 +5575,7 @@
         <v>244.66</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="18">
         <v>42472.4375</v>
       </c>
@@ -5716,7 +5595,7 @@
         <v>255.29</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="18">
         <v>42472.4375</v>
       </c>
@@ -5736,7 +5615,7 @@
         <v>266.02999999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="18">
         <v>42472.4375</v>
       </c>
@@ -5756,7 +5635,7 @@
         <v>276.66000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="18">
         <v>42472.4375</v>
       </c>
@@ -5776,7 +5655,7 @@
         <v>287.29000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="18">
         <v>42472.4375</v>
       </c>
@@ -5796,7 +5675,7 @@
         <v>297.93</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="18">
         <v>42472.4375</v>
       </c>
@@ -5816,7 +5695,7 @@
         <v>308.57</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="18">
         <v>42472.4375</v>
       </c>
@@ -5836,7 +5715,7 @@
         <v>319.2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="18">
         <v>42472.4375</v>
       </c>
@@ -5856,7 +5735,7 @@
         <v>329.86</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="18">
         <v>42472.4375</v>
       </c>
@@ -5876,7 +5755,7 @@
         <v>340.51</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="18">
         <v>42472.4375</v>
       </c>
@@ -5896,7 +5775,7 @@
         <v>351.16</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="18">
         <v>42472.4375</v>
       </c>
@@ -5916,7 +5795,7 @@
         <v>361.84</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="18">
         <v>42472.4375</v>
       </c>
@@ -5936,7 +5815,7 @@
         <v>372.5</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="18">
         <v>42472.4375</v>
       </c>
@@ -5965,22 +5844,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -6003,7 +5882,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -6028,7 +5907,7 @@
         <v>0.12664735761323623</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -6053,7 +5932,7 @@
         <v>0.1266474947961356</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -6078,7 +5957,7 @@
         <v>0.12664753500770867</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -6103,7 +5982,7 @@
         <v>0.12664300343145105</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -6128,7 +6007,7 @@
         <v>0.1266425725632859</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -6153,7 +6032,7 @@
         <v>0.12664249638123623</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -6178,7 +6057,7 @@
         <v>0.12662574886890693</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>124</v>
       </c>
@@ -6203,7 +6082,7 @@
         <v>0.12662243904258613</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>125</v>
       </c>
@@ -6228,7 +6107,7 @@
         <v>0.1266229035983662</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -6253,7 +6132,7 @@
         <v>0.12659677428470054</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>127</v>
       </c>
@@ -6278,7 +6157,7 @@
         <v>0.12659506173868512</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>128</v>
       </c>
@@ -6303,7 +6182,7 @@
         <v>0.12659682648270595</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -6328,7 +6207,7 @@
         <v>0.1265372462539151</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -6353,7 +6232,7 @@
         <v>0.12653626144503002</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -6378,7 +6257,7 @@
         <v>0.1265226960052131</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -6403,7 +6282,7 @@
         <v>0.12642750218520346</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -6428,7 +6307,7 @@
         <v>0.12642177988769618</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>134</v>
       </c>
@@ -6453,7 +6332,7 @@
         <v>0.12642032941922363</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>93</v>
       </c>
@@ -6461,7 +6340,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>94</v>
       </c>
@@ -6469,7 +6348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>95</v>
       </c>
@@ -6477,7 +6356,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>96</v>
       </c>
@@ -6485,7 +6364,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>97</v>
       </c>
@@ -6493,7 +6372,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>98</v>
       </c>
@@ -6501,7 +6380,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>99</v>
       </c>
@@ -6509,7 +6388,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>100</v>
       </c>
@@ -6517,7 +6396,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>101</v>
       </c>
@@ -6525,7 +6404,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>102</v>
       </c>
@@ -6533,7 +6412,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>103</v>
       </c>
@@ -6541,7 +6420,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>104</v>
       </c>
@@ -6549,7 +6428,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>105</v>
       </c>
@@ -6557,7 +6436,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>106</v>
       </c>
@@ -6565,7 +6444,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>107</v>
       </c>
@@ -6573,7 +6452,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>108</v>
       </c>
@@ -6581,7 +6460,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>109</v>
       </c>
@@ -6589,7 +6468,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>110</v>
       </c>
@@ -6613,35 +6492,35 @@
       <selection pane="bottomRight" activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -6712,7 +6591,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -6780,7 +6659,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -6848,7 +6727,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -6916,7 +6795,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -6984,7 +6863,7 @@
         <v>-0.10558110173199796</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -7052,7 +6931,7 @@
         <v>-0.18578586376512662</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -7120,7 +6999,7 @@
         <v>-0.19996975057864316</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -7188,7 +7067,7 @@
         <v>0.13437772513675506</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>124</v>
       </c>
@@ -7256,7 +7135,7 @@
         <v>9.6121771774902616E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>125</v>
       </c>
@@ -7324,7 +7203,7 @@
         <v>2.7144114124771815E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -7392,7 +7271,7 @@
         <v>1.2760704241720693E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>127</v>
       </c>
@@ -7460,7 +7339,7 @@
         <v>-2.0366713877886834E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>128</v>
       </c>
@@ -7528,7 +7407,7 @@
         <v>1.3769661138764438E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -7596,7 +7475,7 @@
         <v>0.1347257594336638</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -7664,7 +7543,7 @@
         <v>0.12670949275627194</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -7732,7 +7611,7 @@
         <v>1.5514422447381378E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -7796,7 +7675,7 @@
         <v>9.4855300530550385E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -7860,7 +7739,7 @@
         <v>6.8598234896195112E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>134</v>
       </c>
@@ -7933,13 +7812,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7971,7 +7850,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8008,7 +7887,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -8049,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
@@ -8090,7 +7969,7 @@
         <v>9.9999999999997868E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -8131,7 +8010,7 @@
         <v>7.2648315725676342E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>250</v>
       </c>
@@ -8172,7 +8051,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>

--- a/Sorption Experiments/RaGoe_pH5/RaGoe_pH5_NoScript.xlsx
+++ b/Sorption Experiments/RaGoe_pH5/RaGoe_pH5_NoScript.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="128">
   <si>
     <t>Parameters</t>
   </si>
@@ -410,6 +410,12 @@
   </si>
   <si>
     <t>counts below detection</t>
+  </si>
+  <si>
+    <t>MinMass (g)</t>
+  </si>
+  <si>
+    <t>sMinMass (g)</t>
   </si>
 </sst>
 </file>
@@ -577,17 +583,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -803,11 +799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199611552"/>
-        <c:axId val="199610376"/>
+        <c:axId val="193311464"/>
+        <c:axId val="221850120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199611552"/>
+        <c:axId val="193311464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,12 +831,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199610376"/>
+        <c:crossAx val="221850120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199610376"/>
+        <c:axId val="221850120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,7 +864,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199611552"/>
+        <c:crossAx val="193311464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1103,11 +1099,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199608808"/>
-        <c:axId val="199609592"/>
+        <c:axId val="221848944"/>
+        <c:axId val="221852080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199608808"/>
+        <c:axId val="221848944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,12 +1131,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199609592"/>
+        <c:crossAx val="221852080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199609592"/>
+        <c:axId val="221852080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,7 +1164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199608808"/>
+        <c:crossAx val="221848944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1271,6 +1267,7 @@
       <sheetName val="Scint Cocktail Testing"/>
       <sheetName val="Calibration Data"/>
       <sheetName val="Stock Log"/>
+      <sheetName val="Stock 6 Calc"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1294,6 +1291,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7381,7 +7379,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
@@ -7510,11 +7508,11 @@
         <v>0.02</v>
       </c>
       <c r="M2">
-        <f>I2/K2</f>
+        <f t="shared" ref="M2:M19" si="0">I2/K2</f>
         <v>1.8198880290402807E-2</v>
       </c>
       <c r="N2">
-        <f>SQRT((L2/K2)^2+(J2/I2)^2)*M2</f>
+        <f t="shared" ref="N2:N19" si="1">SQRT((L2/K2)^2+(J2/I2)^2)*M2</f>
         <v>1.5745109569121937E-2</v>
       </c>
       <c r="O2">
@@ -7526,11 +7524,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q2">
-        <f>(O2-M2*G2)/E2</f>
+        <f t="shared" ref="Q2:Q19" si="2">(O2-M2*G2)/E2</f>
         <v>-61.070068088600017</v>
       </c>
       <c r="S2" t="e">
-        <f>(O2-M2*G2)/O2</f>
+        <f t="shared" ref="S2:S19" si="3">(O2-M2*G2)/O2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7574,11 +7572,11 @@
         <v>0.02</v>
       </c>
       <c r="M3">
-        <f>I3/K3</f>
+        <f t="shared" si="0"/>
         <v>1.6352233750846667E-2</v>
       </c>
       <c r="N3">
-        <f>SQRT((L3/K3)^2+(J3/I3)^2)*M3</f>
+        <f t="shared" si="1"/>
         <v>1.5745101464546822E-2</v>
       </c>
       <c r="O3">
@@ -7590,11 +7588,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q3">
-        <f>(O3-M3*G3)/E3</f>
+        <f t="shared" si="2"/>
         <v>-55.431300850327688</v>
       </c>
       <c r="S3" t="e">
-        <f>(O3-M3*G3)/O3</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7638,11 +7636,11 @@
         <v>0.02</v>
       </c>
       <c r="M4">
-        <f>I4/K4</f>
+        <f t="shared" si="0"/>
         <v>1.5810975282356074E-2</v>
       </c>
       <c r="N4">
-        <f>SQRT((L4/K4)^2+(J4/I4)^2)*M4</f>
+        <f t="shared" si="1"/>
         <v>1.5745099253241863E-2</v>
       </c>
       <c r="O4">
@@ -7654,11 +7652,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q4">
-        <f>(O4-M4*G4)/E4</f>
+        <f t="shared" si="2"/>
         <v>-51.168204797268849</v>
       </c>
       <c r="S4" t="e">
-        <f>(O4-M4*G4)/O4</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7702,11 +7700,11 @@
         <v>0.02</v>
       </c>
       <c r="M5">
-        <f>I5/K5</f>
+        <f t="shared" si="0"/>
         <v>7.6914811210485309E-2</v>
       </c>
       <c r="N5">
-        <f>SQRT((L5/K5)^2+(J5/I5)^2)*M5</f>
+        <f t="shared" si="1"/>
         <v>1.5745818940258841E-2</v>
       </c>
       <c r="O5">
@@ -7718,11 +7716,11 @@
         <v>5.9989159322257707E-2</v>
       </c>
       <c r="Q5">
-        <f>(O5-M5*G5)/E5</f>
+        <f t="shared" si="2"/>
         <v>-8.0695393324645064</v>
       </c>
       <c r="S5">
-        <f>(O5-M5*G5)/O5</f>
+        <f t="shared" si="3"/>
         <v>-3.1938506103392501E-2</v>
       </c>
     </row>
@@ -7766,11 +7764,11 @@
         <v>0.02</v>
       </c>
       <c r="M6">
-        <f>I6/K6</f>
+        <f t="shared" si="0"/>
         <v>8.2735992974545952E-2</v>
       </c>
       <c r="N6">
-        <f>SQRT((L6/K6)^2+(J6/I6)^2)*M6</f>
+        <f t="shared" si="1"/>
         <v>1.5745936984657784E-2</v>
       </c>
       <c r="O6">
@@ -7782,11 +7780,11 @@
         <v>5.9989159322257707E-2</v>
       </c>
       <c r="Q6">
-        <f>(O6-M6*G6)/E6</f>
+        <f t="shared" si="2"/>
         <v>-27.992136065316288</v>
       </c>
       <c r="S6">
-        <f>(O6-M6*G6)/O6</f>
+        <f t="shared" si="3"/>
         <v>-0.11003921933171987</v>
       </c>
     </row>
@@ -7830,11 +7828,11 @@
         <v>0.02</v>
       </c>
       <c r="M7">
-        <f>I7/K7</f>
+        <f t="shared" si="0"/>
         <v>8.3765445355792834E-2</v>
       </c>
       <c r="N7">
-        <f>SQRT((L7/K7)^2+(J7/I7)^2)*M7</f>
+        <f t="shared" si="1"/>
         <v>1.5745958756011733E-2</v>
       </c>
       <c r="O7">
@@ -7846,11 +7844,11 @@
         <v>5.9989159322257707E-2</v>
       </c>
       <c r="Q7">
-        <f>(O7-M7*G7)/E7</f>
+        <f t="shared" si="2"/>
         <v>-30.266059830769027</v>
       </c>
       <c r="S7">
-        <f>(O7-M7*G7)/O7</f>
+        <f t="shared" si="3"/>
         <v>-0.12385101364921881</v>
       </c>
     </row>
@@ -7894,11 +7892,11 @@
         <v>0.02</v>
       </c>
       <c r="M8">
-        <f>I8/K8</f>
+        <f t="shared" si="0"/>
         <v>0.31159811540131821</v>
       </c>
       <c r="N8">
-        <f>SQRT((L8/K8)^2+(J8/I8)^2)*M8</f>
+        <f t="shared" si="1"/>
         <v>1.5757395853654457E-2</v>
       </c>
       <c r="O8">
@@ -7910,11 +7908,11 @@
         <v>0.19165898051079078</v>
       </c>
       <c r="Q8">
-        <f>(O8-M8*G8)/E8</f>
+        <f t="shared" si="2"/>
         <v>208.11020889599615</v>
       </c>
       <c r="S8">
-        <f>(O8-M8*G8)/O8</f>
+        <f t="shared" si="3"/>
         <v>0.16599132604513622</v>
       </c>
     </row>
@@ -7958,11 +7956,11 @@
         <v>0.02</v>
       </c>
       <c r="M9">
-        <f>I9/K9</f>
+        <f t="shared" si="0"/>
         <v>0.35698953637650099</v>
       </c>
       <c r="N9">
-        <f>SQRT((L9/K9)^2+(J9/I9)^2)*M9</f>
+        <f t="shared" si="1"/>
         <v>1.5761247306701621E-2</v>
       </c>
       <c r="O9">
@@ -7974,11 +7972,11 @@
         <v>0.19165898051079078</v>
       </c>
       <c r="Q9">
-        <f>(O9-M9*G9)/E9</f>
+        <f t="shared" si="2"/>
         <v>54.869377147934166</v>
       </c>
       <c r="S9">
-        <f>(O9-M9*G9)/O9</f>
+        <f t="shared" si="3"/>
         <v>4.4498810701511515E-2</v>
       </c>
     </row>
@@ -8022,11 +8020,11 @@
         <v>0.02</v>
       </c>
       <c r="M10">
-        <f>I10/K10</f>
+        <f t="shared" si="0"/>
         <v>0.35061117677722897</v>
       </c>
       <c r="N10">
-        <f>SQRT((L10/K10)^2+(J10/I10)^2)*M10</f>
+        <f t="shared" si="1"/>
         <v>1.576067458377986E-2</v>
       </c>
       <c r="O10">
@@ -8038,11 +8036,11 @@
         <v>0.19165898051079078</v>
       </c>
       <c r="Q10">
-        <f>(O10-M10*G10)/E10</f>
+        <f t="shared" si="2"/>
         <v>74.930882329303159</v>
       </c>
       <c r="S10">
-        <f>(O10-M10*G10)/O10</f>
+        <f t="shared" si="3"/>
         <v>6.1570824197308242E-2</v>
       </c>
     </row>
@@ -8086,11 +8084,11 @@
         <v>0.02</v>
       </c>
       <c r="M11">
-        <f>I11/K11</f>
+        <f t="shared" si="0"/>
         <v>0.71320128611019296</v>
       </c>
       <c r="N11">
-        <f>SQRT((L11/K11)^2+(J11/I11)^2)*M11</f>
+        <f t="shared" si="1"/>
         <v>1.5809546952544745E-2</v>
       </c>
       <c r="O11">
@@ -8102,11 +8100,11 @@
         <v>0.59989159322257712</v>
       </c>
       <c r="Q11">
-        <f>(O11-M11*G11)/E11</f>
+        <f t="shared" si="2"/>
         <v>106.42942041023107</v>
       </c>
       <c r="S11">
-        <f>(O11-M11*G11)/O11</f>
+        <f t="shared" si="3"/>
         <v>4.3123348862566906E-2</v>
       </c>
     </row>
@@ -8150,11 +8148,11 @@
         <v>0.02</v>
       </c>
       <c r="M12">
-        <f>I12/K12</f>
+        <f t="shared" si="0"/>
         <v>0.7372448363134364</v>
       </c>
       <c r="N12">
-        <f>SQRT((L12/K12)^2+(J12/I12)^2)*M12</f>
+        <f t="shared" si="1"/>
         <v>1.5813958085860835E-2</v>
       </c>
       <c r="O12">
@@ -8166,11 +8164,11 @@
         <v>0.59989159322257712</v>
       </c>
       <c r="Q12">
-        <f>(O12-M12*G12)/E12</f>
+        <f t="shared" si="2"/>
         <v>27.1749488612293</v>
       </c>
       <c r="S12">
-        <f>(O12-M12*G12)/O12</f>
+        <f t="shared" si="3"/>
         <v>1.0864977701441856E-2</v>
       </c>
     </row>
@@ -8214,11 +8212,11 @@
         <v>0.02</v>
       </c>
       <c r="M13">
-        <f>I13/K13</f>
+        <f t="shared" si="0"/>
         <v>0.71246899524105856</v>
       </c>
       <c r="N13">
-        <f>SQRT((L13/K13)^2+(J13/I13)^2)*M13</f>
+        <f t="shared" si="1"/>
         <v>1.5809414879223046E-2</v>
       </c>
       <c r="O13">
@@ -8230,11 +8228,11 @@
         <v>0.59989159322257712</v>
       </c>
       <c r="Q13">
-        <f>(O13-M13*G13)/E13</f>
+        <f t="shared" si="2"/>
         <v>110.68678731657985</v>
       </c>
       <c r="S13">
-        <f>(O13-M13*G13)/O13</f>
+        <f t="shared" si="3"/>
         <v>4.4105837324327213E-2</v>
       </c>
     </row>
@@ -8278,11 +8276,11 @@
         <v>0.02</v>
       </c>
       <c r="M14">
-        <f>I14/K14</f>
+        <f t="shared" si="0"/>
         <v>1.5706661357663356</v>
       </c>
       <c r="N14">
-        <f>SQRT((L14/K14)^2+(J14/I14)^2)*M14</f>
+        <f t="shared" si="1"/>
         <v>1.605537663796314E-2</v>
       </c>
       <c r="O14">
@@ -8294,11 +8292,11 @@
         <v>1.041743875105815</v>
       </c>
       <c r="Q14">
-        <f>(O14-M14*G14)/E14</f>
+        <f t="shared" si="2"/>
         <v>965.61250810158936</v>
       </c>
       <c r="S14">
-        <f>(O14-M14*G14)/O14</f>
+        <f t="shared" si="3"/>
         <v>0.15920596667976508</v>
       </c>
     </row>
@@ -8342,11 +8340,11 @@
         <v>0.02</v>
       </c>
       <c r="M15">
-        <f>I15/K15</f>
+        <f t="shared" si="0"/>
         <v>1.5852482756821411</v>
       </c>
       <c r="N15">
-        <f>SQRT((L15/K15)^2+(J15/I15)^2)*M15</f>
+        <f t="shared" si="1"/>
         <v>1.6061108272124085E-2</v>
       </c>
       <c r="O15">
@@ -8358,11 +8356,11 @@
         <v>1.041743875105815</v>
       </c>
       <c r="Q15">
-        <f>(O15-M15*G15)/E15</f>
+        <f t="shared" si="2"/>
         <v>918.26789798533764</v>
       </c>
       <c r="S15">
-        <f>(O15-M15*G15)/O15</f>
+        <f t="shared" si="3"/>
         <v>0.15139999445240304</v>
       </c>
     </row>
@@ -8406,11 +8404,11 @@
         <v>0.02</v>
       </c>
       <c r="M16">
-        <f>I16/K16</f>
+        <f t="shared" si="0"/>
         <v>1.7875197492304244</v>
       </c>
       <c r="N16">
-        <f>SQRT((L16/K16)^2+(J16/I16)^2)*M16</f>
+        <f t="shared" si="1"/>
         <v>1.6145837171303166E-2</v>
       </c>
       <c r="O16">
@@ -8422,11 +8420,11 @@
         <v>1.041743875105815</v>
       </c>
       <c r="Q16">
-        <f>(O16-M16*G16)/E16</f>
+        <f t="shared" si="2"/>
         <v>264.98368102368647</v>
       </c>
       <c r="S16">
-        <f>(O16-M16*G16)/O16</f>
+        <f t="shared" si="3"/>
         <v>4.3121956110848653E-2</v>
       </c>
     </row>
@@ -8470,11 +8468,11 @@
         <v>0.02</v>
       </c>
       <c r="M17">
-        <f>I17/K17</f>
+        <f t="shared" si="0"/>
         <v>3.2897136446036024</v>
       </c>
       <c r="N17">
-        <f>SQRT((L17/K17)^2+(J17/I17)^2)*M17</f>
+        <f t="shared" si="1"/>
         <v>1.7064466414179039E-2</v>
       </c>
       <c r="O17">
@@ -8486,11 +8484,11 @@
         <v>1.9165898051079078</v>
       </c>
       <c r="Q17">
-        <f>(O17-M17*G17)/E17</f>
+        <f t="shared" si="2"/>
         <v>1463.724366949665</v>
       </c>
       <c r="S17">
-        <f>(O17-M17*G17)/O17</f>
+        <f t="shared" si="3"/>
         <v>0.11949091511884485</v>
       </c>
     </row>
@@ -8534,11 +8532,11 @@
         <v>0.02</v>
       </c>
       <c r="M18">
-        <f>I18/K18</f>
+        <f t="shared" si="0"/>
         <v>3.3852404578366242</v>
       </c>
       <c r="N18">
-        <f>SQRT((L18/K18)^2+(J18/I18)^2)*M18</f>
+        <f t="shared" si="1"/>
         <v>1.7139036214915228E-2</v>
       </c>
       <c r="O18">
@@ -8550,11 +8548,11 @@
         <v>1.9165898051079078</v>
       </c>
       <c r="Q18">
-        <f>(O18-M18*G18)/E18</f>
+        <f t="shared" si="2"/>
         <v>1193.5684309068913</v>
       </c>
       <c r="S18">
-        <f>(O18-M18*G18)/O18</f>
+        <f t="shared" si="3"/>
         <v>9.3922663292611439E-2</v>
       </c>
     </row>
@@ -8598,11 +8596,11 @@
         <v>0.02</v>
       </c>
       <c r="M19">
-        <f>I19/K19</f>
+        <f t="shared" si="0"/>
         <v>3.4095599437296924</v>
       </c>
       <c r="N19">
-        <f>SQRT((L19/K19)^2+(J19/I19)^2)*M19</f>
+        <f t="shared" si="1"/>
         <v>1.7158308383585601E-2</v>
       </c>
       <c r="O19">
@@ -8614,11 +8612,11 @@
         <v>1.9165898051079078</v>
       </c>
       <c r="Q19">
-        <f>(O19-M19*G19)/E19</f>
+        <f t="shared" si="2"/>
         <v>1081.4226251442303</v>
       </c>
       <c r="S19">
-        <f>(O19-M19*G19)/O19</f>
+        <f t="shared" si="3"/>
         <v>8.7413425534604058E-2</v>
       </c>
     </row>
@@ -8634,15 +8632,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8674,13 +8683,19 @@
         <v>112</v>
       </c>
       <c r="K1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" t="s">
         <v>124</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8721,14 +8736,22 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="K2">
+        <f>AVERAGE('Bottle Results'!E2:E4)</f>
+        <v>3.0066666666666669E-2</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.STDEV.S('Bottle Results'!E2:E4)</f>
+        <v>7.3711147958320012E-4</v>
+      </c>
+      <c r="M2">
         <f>COUNT('Bottle Results'!I2:I4)</f>
         <v>3</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -8769,11 +8792,19 @@
         <v>0</v>
       </c>
       <c r="K3">
+        <f>AVERAGE('Bottle Results'!E5:E7)</f>
+        <v>2.9766666666666663E-2</v>
+      </c>
+      <c r="L3">
+        <f>_xlfn.STDEV.S('Bottle Results'!E5:E7)</f>
+        <v>6.4291005073286377E-4</v>
+      </c>
+      <c r="M3">
         <f>COUNT('Bottle Results'!I5:I7)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
@@ -8814,11 +8845,19 @@
         <v>9.9999999999997868E-3</v>
       </c>
       <c r="K4">
+        <f>AVERAGE('Bottle Results'!E8:E10)</f>
+        <v>3.0266666666666667E-2</v>
+      </c>
+      <c r="L4">
+        <f>_xlfn.STDEV.S('Bottle Results'!E8:E10)</f>
+        <v>4.5092497528229021E-4</v>
+      </c>
+      <c r="M4">
         <f>COUNT('Bottle Results'!I8:I10)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -8859,11 +8898,19 @@
         <v>1.9999999999999574E-2</v>
       </c>
       <c r="K5">
+        <f>AVERAGE('Bottle Results'!E11:E13)</f>
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="L5">
+        <f>_xlfn.STDEV.S('Bottle Results'!E11:E13)</f>
+        <v>2.6457513110645942E-4</v>
+      </c>
+      <c r="M5">
         <f>COUNT('Bottle Results'!I11:I13)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>250</v>
       </c>
@@ -8904,11 +8951,19 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="K6">
+        <f>AVERAGE('Bottle Results'!E14:E16)</f>
+        <v>3.0666666666666665E-2</v>
+      </c>
+      <c r="L6">
+        <f>_xlfn.STDEV.S('Bottle Results'!E14:E16)</f>
+        <v>2.3094010767585091E-4</v>
+      </c>
+      <c r="M6">
         <f>COUNT('Bottle Results'!I14:I16)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
@@ -8949,6 +9004,14 @@
         <v>1.154700538379227E-2</v>
       </c>
       <c r="K7">
+        <f>AVERAGE('Bottle Results'!E17:E19)</f>
+        <v>3.0033333333333332E-2</v>
+      </c>
+      <c r="L7">
+        <f>_xlfn.STDEV.S('Bottle Results'!E17:E19)</f>
+        <v>5.6862407030773316E-4</v>
+      </c>
+      <c r="M7">
         <f>COUNT('Bottle Results'!I17:I19)</f>
         <v>3</v>
       </c>
